--- a/yeast_replaceable_genes/sequences/all_other_mendelian/dataAugust12.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/dataAugust12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1220" windowWidth="25360" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="25360" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="179">
   <si>
     <t>Gene</t>
   </si>
@@ -523,9 +523,6 @@
   </si>
   <si>
     <t>HYAL1</t>
-  </si>
-  <si>
-    <t>2.6965E+308</t>
   </si>
   <si>
     <t>IDS</t>
@@ -798,13 +795,253 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -874,10 +1111,252 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1208,15 +1687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF134"/>
+  <dimension ref="A1:AH134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="L137" sqref="L137"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:34">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1412,8 +1891,15 @@
       <c r="AF2" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="AG2">
+        <f>AVERAGE(AA2,AC2,AE2)</f>
+        <v>6.9050029999999998E-2</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:34">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1511,8 +1997,15 @@
       <c r="AF3" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG66" si="1">AVERAGE(AA3,AC3,AE3)</f>
+        <v>2.9233045333333336E-6</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:34">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1610,8 +2103,15 @@
       <c r="AF4" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="AG4">
+        <f t="shared" si="1"/>
+        <v>1.0969372E-2</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:34">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1709,8 +2209,15 @@
       <c r="AF5" s="14">
         <v>9.6048620000000001E-2</v>
       </c>
+      <c r="AG5">
+        <f t="shared" si="1"/>
+        <v>7.2425750000000011E-3</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:34">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1808,8 +2315,15 @@
       <c r="AF6" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="AG6">
+        <f t="shared" si="1"/>
+        <v>1.0187637333333334E-2</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:34">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1907,8 +2421,15 @@
       <c r="AF7" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="AG7">
+        <f t="shared" si="1"/>
+        <v>7.3486703333333334E-2</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:34">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2006,8 +2527,15 @@
       <c r="AF8" s="12">
         <v>1.3222920000000001E-2</v>
       </c>
+      <c r="AG8">
+        <f t="shared" si="1"/>
+        <v>3.9281323333333331E-3</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:34">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -2105,8 +2633,15 @@
       <c r="AF9" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="AG9">
+        <f t="shared" si="1"/>
+        <v>0.39026040000000001</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:34">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2202,8 +2737,15 @@
       <c r="AF10" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="AG10">
+        <f t="shared" si="1"/>
+        <v>3.7546466666666667E-2</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:34">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -2301,8 +2843,15 @@
       <c r="AF11" s="17">
         <v>0.22330990000000001</v>
       </c>
+      <c r="AG11">
+        <f t="shared" si="1"/>
+        <v>3.1260257E-2</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:34">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -2400,8 +2949,15 @@
       <c r="AF12" s="7">
         <v>0.14438999999999999</v>
       </c>
+      <c r="AG12">
+        <f t="shared" si="1"/>
+        <v>8.3298109999999995E-2</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:34">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -2499,8 +3055,15 @@
       <c r="AF13" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="AG13">
+        <f t="shared" si="1"/>
+        <v>0.14894676666666665</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:34">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +3161,15 @@
       <c r="AF14" s="17">
         <v>5.4670839999999998E-2</v>
       </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>0.21546670000000001</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:34">
       <c r="A15" s="23" t="s">
         <v>49</v>
       </c>
@@ -2696,8 +3266,15 @@
       <c r="AF15" s="26">
         <v>8.7122869470292602E-2</v>
       </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>8.2101755216749134E-3</v>
+      </c>
+      <c r="AH15" s="23">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:34">
       <c r="A16" s="27" t="s">
         <v>50</v>
       </c>
@@ -2794,8 +3371,15 @@
       <c r="AF16" s="29">
         <v>9.6119098E-2</v>
       </c>
+      <c r="AG16">
+        <f t="shared" si="1"/>
+        <v>0.14603824566666668</v>
+      </c>
+      <c r="AH16" s="27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:34">
       <c r="A17" s="23" t="s">
         <v>51</v>
       </c>
@@ -2892,8 +3476,15 @@
       <c r="AF17" s="23" t="s">
         <v>33</v>
       </c>
+      <c r="AG17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH17" s="23">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:34">
       <c r="A18" s="27" t="s">
         <v>52</v>
       </c>
@@ -2990,8 +3581,15 @@
       <c r="AF18" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH18" s="27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:34">
       <c r="A19" s="30" t="s">
         <v>54</v>
       </c>
@@ -3088,8 +3686,15 @@
       <c r="AF19" s="29">
         <v>0.131478396</v>
       </c>
+      <c r="AG19">
+        <f t="shared" si="1"/>
+        <v>8.776154999999999E-3</v>
+      </c>
+      <c r="AH19" s="27">
+        <v>45</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:34">
       <c r="A20" s="27" t="s">
         <v>56</v>
       </c>
@@ -3186,8 +3791,15 @@
       <c r="AF20" s="29">
         <v>7.6748453999999994E-2</v>
       </c>
+      <c r="AG20">
+        <f t="shared" si="1"/>
+        <v>2.4140027999999997E-2</v>
+      </c>
+      <c r="AH20" s="27">
+        <v>15</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:34">
       <c r="A21" s="32" t="s">
         <v>57</v>
       </c>
@@ -3284,8 +3896,15 @@
       <c r="AF21" s="34" t="s">
         <v>33</v>
       </c>
+      <c r="AG21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH21" s="34" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:34">
       <c r="A22" s="23" t="s">
         <v>59</v>
       </c>
@@ -3382,8 +4001,15 @@
       <c r="AF22" s="23" t="s">
         <v>33</v>
       </c>
+      <c r="AG22">
+        <f t="shared" si="1"/>
+        <v>7.927309179834946E-2</v>
+      </c>
+      <c r="AH22" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:34">
       <c r="A23" s="27" t="s">
         <v>61</v>
       </c>
@@ -3480,8 +4106,15 @@
       <c r="AF23" s="36">
         <v>0.25475857200000002</v>
       </c>
+      <c r="AG23">
+        <f t="shared" si="1"/>
+        <v>6.8655972666666662E-2</v>
+      </c>
+      <c r="AH23" s="27">
+        <v>15</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:34">
       <c r="A24" s="23" t="s">
         <v>62</v>
       </c>
@@ -3578,8 +4211,15 @@
       <c r="AF24" s="26">
         <v>7.9723170466190194E-2</v>
       </c>
+      <c r="AG24">
+        <f t="shared" si="1"/>
+        <v>0.43271958056036935</v>
+      </c>
+      <c r="AH24" s="23">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:34">
       <c r="A25" s="27" t="s">
         <v>63</v>
       </c>
@@ -3676,8 +4316,15 @@
       <c r="AF25" s="29">
         <v>0.28546735299999998</v>
       </c>
+      <c r="AG25">
+        <f t="shared" si="1"/>
+        <v>0.12975186066666666</v>
+      </c>
+      <c r="AH25" s="27">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:34">
       <c r="A26" s="27" t="s">
         <v>64</v>
       </c>
@@ -3774,8 +4421,15 @@
       <c r="AF26" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG26">
+        <f t="shared" si="1"/>
+        <v>0.23333711300000004</v>
+      </c>
+      <c r="AH26" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:34">
       <c r="A27" s="27" t="s">
         <v>66</v>
       </c>
@@ -3872,8 +4526,15 @@
       <c r="AF27" s="29">
         <v>0.222890539</v>
       </c>
+      <c r="AG27">
+        <f t="shared" si="1"/>
+        <v>7.0292217333333337E-2</v>
+      </c>
+      <c r="AH27" s="27">
+        <v>10</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:34">
       <c r="A28" s="30" t="s">
         <v>67</v>
       </c>
@@ -3970,8 +4631,15 @@
       <c r="AF28" s="31">
         <v>2.0760173E-2</v>
       </c>
+      <c r="AG28">
+        <f t="shared" si="1"/>
+        <v>6.6086073333333337E-7</v>
+      </c>
+      <c r="AH28" s="27">
+        <v>75</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:34">
       <c r="A29" s="27" t="s">
         <v>68</v>
       </c>
@@ -4068,8 +4736,15 @@
       <c r="AF29" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH29" s="27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:34">
       <c r="A30" s="27" t="s">
         <v>69</v>
       </c>
@@ -4166,8 +4841,15 @@
       <c r="AF30" s="29">
         <v>0.17129566700000001</v>
       </c>
+      <c r="AG30">
+        <f t="shared" si="1"/>
+        <v>8.065535800000001E-2</v>
+      </c>
+      <c r="AH30" s="27">
+        <v>5</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:34">
       <c r="A31" s="27" t="s">
         <v>70</v>
       </c>
@@ -4264,8 +4946,15 @@
       <c r="AF31" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH31" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:34">
       <c r="A32" s="27" t="s">
         <v>71</v>
       </c>
@@ -4362,8 +5051,15 @@
       <c r="AF32" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG32">
+        <f t="shared" si="1"/>
+        <v>0.32958740599999997</v>
+      </c>
+      <c r="AH32" s="27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:34">
       <c r="A33" s="27" t="s">
         <v>72</v>
       </c>
@@ -4460,8 +5156,15 @@
       <c r="AF33" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG33">
+        <f t="shared" si="1"/>
+        <v>0.29774251033333332</v>
+      </c>
+      <c r="AH33" s="27">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:34">
       <c r="A34" s="27" t="s">
         <v>73</v>
       </c>
@@ -4558,8 +5261,15 @@
       <c r="AF34" s="29">
         <v>0.15820151399999999</v>
       </c>
+      <c r="AG34">
+        <f t="shared" si="1"/>
+        <v>0.21789934499999999</v>
+      </c>
+      <c r="AH34" s="27">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:34">
       <c r="A35" s="27" t="s">
         <v>74</v>
       </c>
@@ -4656,8 +5366,15 @@
       <c r="AF35" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG35">
+        <f t="shared" si="1"/>
+        <v>0.20800808033333332</v>
+      </c>
+      <c r="AH35" s="27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:34">
       <c r="A36" s="27" t="s">
         <v>75</v>
       </c>
@@ -4754,8 +5471,15 @@
       <c r="AF36" s="29">
         <v>0.258960841</v>
       </c>
+      <c r="AG36">
+        <f t="shared" si="1"/>
+        <v>0.32720366466666667</v>
+      </c>
+      <c r="AH36" s="27">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:34">
       <c r="A37" s="27" t="s">
         <v>76</v>
       </c>
@@ -4852,8 +5576,15 @@
       <c r="AF37" s="36">
         <v>0.35896093200000001</v>
       </c>
+      <c r="AG37">
+        <f t="shared" si="1"/>
+        <v>0.20818334033333333</v>
+      </c>
+      <c r="AH37" s="27">
+        <v>23</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:34">
       <c r="A38" s="27" t="s">
         <v>77</v>
       </c>
@@ -4950,8 +5681,15 @@
       <c r="AF38" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG38">
+        <f t="shared" si="1"/>
+        <v>1.0480221999999999E-2</v>
+      </c>
+      <c r="AH38" s="27">
+        <v>13</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:34">
       <c r="A39" s="27" t="s">
         <v>78</v>
       </c>
@@ -5048,8 +5786,15 @@
       <c r="AF39" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG39">
+        <f t="shared" si="1"/>
+        <v>0.23628068066666663</v>
+      </c>
+      <c r="AH39" s="27">
+        <v>8</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:34">
       <c r="A40" s="27" t="s">
         <v>79</v>
       </c>
@@ -5146,8 +5891,15 @@
       <c r="AF40" s="29">
         <v>7.7860777000000006E-2</v>
       </c>
+      <c r="AG40">
+        <f t="shared" si="1"/>
+        <v>0.30480212866666667</v>
+      </c>
+      <c r="AH40" s="27">
+        <v>9</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:34">
       <c r="A41" s="27" t="s">
         <v>80</v>
       </c>
@@ -5244,8 +5996,15 @@
       <c r="AF41" s="29">
         <v>0.20470241</v>
       </c>
+      <c r="AG41">
+        <f t="shared" si="1"/>
+        <v>2.3280836666666666E-3</v>
+      </c>
+      <c r="AH41" s="27">
+        <v>9</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:34">
       <c r="A42" s="27" t="s">
         <v>81</v>
       </c>
@@ -5342,8 +6101,15 @@
       <c r="AF42" s="29">
         <v>9.3269915999999994E-2</v>
       </c>
+      <c r="AG42">
+        <f t="shared" si="1"/>
+        <v>0.11354408166666667</v>
+      </c>
+      <c r="AH42" s="27">
+        <v>10</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:34">
       <c r="A43" s="27" t="s">
         <v>82</v>
       </c>
@@ -5440,8 +6206,15 @@
       <c r="AF43" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG43">
+        <f t="shared" si="1"/>
+        <v>0.39196862666666665</v>
+      </c>
+      <c r="AH43" s="27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:34">
       <c r="A44" s="27" t="s">
         <v>83</v>
       </c>
@@ -5538,8 +6311,15 @@
       <c r="AF44" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH44" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:34">
       <c r="A45" s="27" t="s">
         <v>84</v>
       </c>
@@ -5636,8 +6416,15 @@
       <c r="AF45" s="29">
         <v>0.111986712</v>
       </c>
+      <c r="AG45">
+        <f t="shared" si="1"/>
+        <v>0.105948581</v>
+      </c>
+      <c r="AH45" s="27">
+        <v>9</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:34">
       <c r="A46" s="39" t="s">
         <v>85</v>
       </c>
@@ -5734,8 +6521,15 @@
       <c r="AF46" s="39" t="s">
         <v>33</v>
       </c>
+      <c r="AG46">
+        <f t="shared" si="1"/>
+        <v>0.30854493266666666</v>
+      </c>
+      <c r="AH46" s="39">
+        <v>16</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:34">
       <c r="A47" s="23" t="s">
         <v>86</v>
       </c>
@@ -5832,8 +6626,15 @@
       <c r="AF47" s="26">
         <v>6.5229432459172607E-2</v>
       </c>
+      <c r="AG47">
+        <f t="shared" si="1"/>
+        <v>9.3475894761892719E-2</v>
+      </c>
+      <c r="AH47" s="23">
+        <v>8</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:34">
       <c r="A48" s="42" t="s">
         <v>87</v>
       </c>
@@ -5930,8 +6731,15 @@
       <c r="AF48" s="42" t="s">
         <v>33</v>
       </c>
+      <c r="AG48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH48" s="42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:34">
       <c r="A49" s="27" t="s">
         <v>88</v>
       </c>
@@ -6028,8 +6836,15 @@
       <c r="AF49" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH49" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:34">
       <c r="A50" s="35" t="s">
         <v>89</v>
       </c>
@@ -6126,8 +6941,15 @@
       <c r="AF50" s="39" t="s">
         <v>33</v>
       </c>
+      <c r="AG50">
+        <f t="shared" si="1"/>
+        <v>0.26532697999999999</v>
+      </c>
+      <c r="AH50" s="39">
+        <v>21</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:34">
       <c r="A51" s="23" t="s">
         <v>90</v>
       </c>
@@ -6224,8 +7046,15 @@
       <c r="AF51" s="26">
         <v>7.5369016421472104E-2</v>
       </c>
+      <c r="AG51">
+        <f t="shared" si="1"/>
+        <v>1.3019834395078117E-2</v>
+      </c>
+      <c r="AH51" s="23">
+        <v>23</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:34">
       <c r="A52" s="44" t="s">
         <v>92</v>
       </c>
@@ -6322,8 +7151,15 @@
       <c r="AF52" s="36">
         <v>0.35896093200000001</v>
       </c>
+      <c r="AG52">
+        <f t="shared" si="1"/>
+        <v>0.20818334033333333</v>
+      </c>
+      <c r="AH52" s="27">
+        <v>23</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:34">
       <c r="A53" s="39" t="s">
         <v>93</v>
       </c>
@@ -6420,8 +7256,15 @@
       <c r="AF53" s="39" t="s">
         <v>33</v>
       </c>
+      <c r="AG53">
+        <f t="shared" si="1"/>
+        <v>0.35904193833333337</v>
+      </c>
+      <c r="AH53" s="39">
+        <v>5</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:34">
       <c r="A54" s="27" t="s">
         <v>94</v>
       </c>
@@ -6518,8 +7361,15 @@
       <c r="AF54" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG54">
+        <f t="shared" si="1"/>
+        <v>1.1267293999999999E-2</v>
+      </c>
+      <c r="AH54" s="27">
+        <v>11</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:34">
       <c r="A55" s="27" t="s">
         <v>95</v>
       </c>
@@ -6616,8 +7466,15 @@
       <c r="AF55" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG55">
+        <f t="shared" si="1"/>
+        <v>0.24599206533333332</v>
+      </c>
+      <c r="AH55" s="27">
+        <v>7</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:34">
       <c r="A56" s="27" t="s">
         <v>96</v>
       </c>
@@ -6714,8 +7571,15 @@
       <c r="AF56" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG56">
+        <f t="shared" si="1"/>
+        <v>0.29671566333333332</v>
+      </c>
+      <c r="AH56" s="27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:34">
       <c r="A57" s="46" t="s">
         <v>97</v>
       </c>
@@ -6812,8 +7676,15 @@
       <c r="AF57" s="49" t="s">
         <v>33</v>
       </c>
+      <c r="AG57">
+        <f t="shared" si="1"/>
+        <v>5.4161177838866663E-3</v>
+      </c>
+      <c r="AH57" s="39">
+        <v>18</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:34">
       <c r="A58" s="27" t="s">
         <v>98</v>
       </c>
@@ -6910,8 +7781,15 @@
       <c r="AF58" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG58">
+        <f t="shared" si="1"/>
+        <v>0.20353643499999999</v>
+      </c>
+      <c r="AH58" s="27">
+        <v>5</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:34">
       <c r="A59" s="30" t="s">
         <v>99</v>
       </c>
@@ -7008,8 +7886,15 @@
       <c r="AF59" s="50">
         <v>0.18967898399999999</v>
       </c>
+      <c r="AG59">
+        <f t="shared" si="1"/>
+        <v>4.0838833333333335E-4</v>
+      </c>
+      <c r="AH59" s="27">
+        <v>32</v>
+      </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:34">
       <c r="A60" s="27" t="s">
         <v>100</v>
       </c>
@@ -7106,8 +7991,15 @@
       <c r="AF60" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG60">
+        <f t="shared" si="1"/>
+        <v>2.5622222333333333E-2</v>
+      </c>
+      <c r="AH60" s="27">
+        <v>11</v>
+      </c>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:34">
       <c r="A61" s="27" t="s">
         <v>101</v>
       </c>
@@ -7204,8 +8096,15 @@
       <c r="AF61" s="50">
         <v>5.7359186999999999E-2</v>
       </c>
+      <c r="AG61">
+        <f t="shared" si="1"/>
+        <v>2.5298992333333336E-2</v>
+      </c>
+      <c r="AH61" s="27">
+        <v>24</v>
+      </c>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:34">
       <c r="A62" s="27" t="s">
         <v>102</v>
       </c>
@@ -7302,8 +8201,15 @@
       <c r="AF62" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG62" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH62" s="27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:34">
       <c r="A63" s="32" t="s">
         <v>103</v>
       </c>
@@ -7401,8 +8307,15 @@
       <c r="AF63" s="54">
         <v>0.3591377</v>
       </c>
+      <c r="AG63">
+        <f t="shared" si="1"/>
+        <v>0.22203580000000001</v>
+      </c>
+      <c r="AH63" s="32">
+        <v>5</v>
+      </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:34">
       <c r="A64" s="27" t="s">
         <v>104</v>
       </c>
@@ -7499,8 +8412,15 @@
       <c r="AF64" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH64" s="27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:34">
       <c r="A65" s="27" t="s">
         <v>105</v>
       </c>
@@ -7597,8 +8517,15 @@
       <c r="AF65" s="50">
         <v>0.17869933700000001</v>
       </c>
+      <c r="AG65">
+        <f t="shared" si="1"/>
+        <v>0.3855804493333333</v>
+      </c>
+      <c r="AH65" s="27">
+        <v>5</v>
+      </c>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:34">
       <c r="A66" s="27" t="s">
         <v>106</v>
       </c>
@@ -7695,8 +8622,15 @@
       <c r="AF66" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH66" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:34">
       <c r="A67" s="27" t="s">
         <v>107</v>
       </c>
@@ -7793,8 +8727,15 @@
       <c r="AF67" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG67" t="e">
+        <f t="shared" ref="AG67:AG130" si="2">AVERAGE(AA67,AC67,AE67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH67" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:34">
       <c r="A68" s="27" t="s">
         <v>108</v>
       </c>
@@ -7891,8 +8832,15 @@
       <c r="AF68" s="55">
         <v>7.6084450000000001E-3</v>
       </c>
+      <c r="AG68">
+        <f t="shared" si="2"/>
+        <v>9.3317554999999996E-2</v>
+      </c>
+      <c r="AH68" s="27">
+        <v>14</v>
+      </c>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:34">
       <c r="A69" s="27" t="s">
         <v>109</v>
       </c>
@@ -7989,8 +8937,15 @@
       <c r="AF69" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG69">
+        <f t="shared" si="2"/>
+        <v>0.29889495833333329</v>
+      </c>
+      <c r="AH69" s="27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:34">
       <c r="A70" s="27" t="s">
         <v>110</v>
       </c>
@@ -8087,8 +9042,15 @@
       <c r="AF70" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG70">
+        <f t="shared" si="2"/>
+        <v>0.16298645366666667</v>
+      </c>
+      <c r="AH70" s="27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:34">
       <c r="A71" s="27" t="s">
         <v>111</v>
       </c>
@@ -8185,8 +9147,15 @@
       <c r="AF71" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="AG71">
+        <f t="shared" si="2"/>
+        <v>5.5373640000000003E-3</v>
+      </c>
+      <c r="AH71" s="27">
+        <v>14</v>
+      </c>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:34">
       <c r="A72" s="39" t="s">
         <v>112</v>
       </c>
@@ -8283,8 +9252,15 @@
       <c r="AF72" s="49" t="s">
         <v>33</v>
       </c>
+      <c r="AG72">
+        <f t="shared" si="2"/>
+        <v>8.6267434266666665E-3</v>
+      </c>
+      <c r="AH72" s="39">
+        <v>12</v>
+      </c>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:34">
       <c r="A73" s="23" t="s">
         <v>113</v>
       </c>
@@ -8381,8 +9357,15 @@
       <c r="AF73" s="23" t="s">
         <v>33</v>
       </c>
+      <c r="AG73">
+        <f t="shared" si="2"/>
+        <v>4.0434139489726783E-3</v>
+      </c>
+      <c r="AH73" s="23">
+        <v>13</v>
+      </c>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:34">
       <c r="A74" s="27" t="s">
         <v>114</v>
       </c>
@@ -8479,8 +9462,15 @@
       <c r="AF74" s="29">
         <v>0.104850603</v>
       </c>
+      <c r="AG74">
+        <f t="shared" si="2"/>
+        <v>0.20214082833333333</v>
+      </c>
+      <c r="AH74" s="27">
+        <v>5</v>
+      </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:34">
       <c r="A75" s="27" t="s">
         <v>115</v>
       </c>
@@ -8577,8 +9567,15 @@
       <c r="AF75" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG75">
+        <f t="shared" si="2"/>
+        <v>6.8052191333333331E-2</v>
+      </c>
+      <c r="AH75" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:34">
       <c r="A76" s="32" t="s">
         <v>116</v>
       </c>
@@ -8676,8 +9673,15 @@
       <c r="AF76" s="33" t="s">
         <v>33</v>
       </c>
+      <c r="AG76" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH76" s="33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:34">
       <c r="A77" s="27" t="s">
         <v>117</v>
       </c>
@@ -8774,8 +9778,15 @@
       <c r="AF77" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG77">
+        <f t="shared" si="2"/>
+        <v>0.11341945800000001</v>
+      </c>
+      <c r="AH77" s="27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:34">
       <c r="A78" s="27" t="s">
         <v>119</v>
       </c>
@@ -8872,8 +9883,15 @@
       <c r="AF78" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG78">
+        <f t="shared" si="2"/>
+        <v>7.1855048666666657E-2</v>
+      </c>
+      <c r="AH78" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="79" spans="1:32">
+    <row r="79" spans="1:34">
       <c r="A79" s="1" t="s">
         <v>120</v>
       </c>
@@ -8970,8 +9988,15 @@
       <c r="AF79" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG79">
+        <f t="shared" si="2"/>
+        <v>0.16294408899999999</v>
+      </c>
+      <c r="AH79" s="27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:34">
       <c r="A80" s="30" t="s">
         <v>122</v>
       </c>
@@ -9068,8 +10093,15 @@
       <c r="AF80" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG80">
+        <f t="shared" si="2"/>
+        <v>4.4168633333333336E-5</v>
+      </c>
+      <c r="AH80" s="27">
+        <v>31</v>
+      </c>
     </row>
-    <row r="81" spans="1:32">
+    <row r="81" spans="1:34">
       <c r="A81" s="32" t="s">
         <v>123</v>
       </c>
@@ -9167,8 +10199,15 @@
       <c r="AF81" s="34" t="s">
         <v>33</v>
       </c>
+      <c r="AG81" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH81" s="33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:32">
+    <row r="82" spans="1:34">
       <c r="A82" s="27" t="s">
         <v>124</v>
       </c>
@@ -9265,8 +10304,15 @@
       <c r="AF82" s="31">
         <v>1.1273514E-2</v>
       </c>
+      <c r="AG82">
+        <f t="shared" si="2"/>
+        <v>4.2804901933333334E-3</v>
+      </c>
+      <c r="AH82" s="27">
+        <v>36</v>
+      </c>
     </row>
-    <row r="83" spans="1:32">
+    <row r="83" spans="1:34">
       <c r="A83" s="39" t="s">
         <v>126</v>
       </c>
@@ -9363,8 +10409,15 @@
       <c r="AF83" s="47">
         <v>3.5013819999999999E-3</v>
       </c>
+      <c r="AG83">
+        <f t="shared" si="2"/>
+        <v>0.2605334356666667</v>
+      </c>
+      <c r="AH83" s="39">
+        <v>25</v>
+      </c>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:34">
       <c r="A84" s="23" t="s">
         <v>128</v>
       </c>
@@ -9461,8 +10514,15 @@
       <c r="AF84" s="23" t="s">
         <v>33</v>
       </c>
+      <c r="AG84" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH84" s="23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="85" spans="1:32">
+    <row r="85" spans="1:34">
       <c r="A85" s="27" t="s">
         <v>129</v>
       </c>
@@ -9559,8 +10619,15 @@
       <c r="AF85" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH85" s="27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="86" spans="1:32">
+    <row r="86" spans="1:34">
       <c r="A86" s="30" t="s">
         <v>130</v>
       </c>
@@ -9657,8 +10724,15 @@
       <c r="AF86" s="29">
         <v>0.333286007</v>
       </c>
+      <c r="AG86">
+        <f t="shared" si="2"/>
+        <v>1.4774098049333334E-3</v>
+      </c>
+      <c r="AH86" s="27">
+        <v>19</v>
+      </c>
     </row>
-    <row r="87" spans="1:32">
+    <row r="87" spans="1:34">
       <c r="A87" s="3" t="s">
         <v>131</v>
       </c>
@@ -9756,8 +10830,15 @@
       <c r="AF87" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="AG87">
+        <f t="shared" si="2"/>
+        <v>0.35976133333333332</v>
+      </c>
+      <c r="AH87" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="88" spans="1:32">
+    <row r="88" spans="1:34">
       <c r="A88" s="3" t="s">
         <v>132</v>
       </c>
@@ -9855,8 +10936,15 @@
       <c r="AF88" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="AG88">
+        <f t="shared" si="2"/>
+        <v>2.3166357666666665E-2</v>
+      </c>
+      <c r="AH88" s="3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="89" spans="1:32">
+    <row r="89" spans="1:34">
       <c r="A89" s="32" t="s">
         <v>133</v>
       </c>
@@ -9954,8 +11042,15 @@
       <c r="AF89" s="33" t="s">
         <v>33</v>
       </c>
+      <c r="AG89">
+        <f t="shared" si="2"/>
+        <v>0.13327361333333332</v>
+      </c>
+      <c r="AH89" s="33">
+        <v>3</v>
+      </c>
     </row>
-    <row r="90" spans="1:32">
+    <row r="90" spans="1:34">
       <c r="A90" s="27" t="s">
         <v>134</v>
       </c>
@@ -10052,8 +11147,15 @@
       <c r="AF90" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG90" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH90" s="27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="91" spans="1:32">
+    <row r="91" spans="1:34">
       <c r="A91" s="27" t="s">
         <v>135</v>
       </c>
@@ -10150,8 +11252,15 @@
       <c r="AF91" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG91" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH91" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:32">
+    <row r="92" spans="1:34">
       <c r="A92" s="27" t="s">
         <v>136</v>
       </c>
@@ -10248,8 +11357,15 @@
       <c r="AF92" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG92">
+        <f t="shared" si="2"/>
+        <v>5.6697322333333335E-2</v>
+      </c>
+      <c r="AH92" s="27">
+        <v>5</v>
+      </c>
     </row>
-    <row r="93" spans="1:32">
+    <row r="93" spans="1:34">
       <c r="A93" s="27" t="s">
         <v>137</v>
       </c>
@@ -10346,8 +11462,15 @@
       <c r="AF93" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG93">
+        <f t="shared" si="2"/>
+        <v>0.38272103600000001</v>
+      </c>
+      <c r="AH93" s="27">
+        <v>9</v>
+      </c>
     </row>
-    <row r="94" spans="1:32">
+    <row r="94" spans="1:34">
       <c r="A94" s="62" t="s">
         <v>138</v>
       </c>
@@ -10444,8 +11567,15 @@
       <c r="AF94" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG94">
+        <f t="shared" si="2"/>
+        <v>0.22306327633333334</v>
+      </c>
+      <c r="AH94" s="27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="95" spans="1:32">
+    <row r="95" spans="1:34">
       <c r="A95" s="30" t="s">
         <v>139</v>
       </c>
@@ -10542,8 +11672,15 @@
       <c r="AF95" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG95">
+        <f t="shared" si="2"/>
+        <v>5.952491666666667E-3</v>
+      </c>
+      <c r="AH95" s="27">
+        <v>28</v>
+      </c>
     </row>
-    <row r="96" spans="1:32">
+    <row r="96" spans="1:34">
       <c r="A96" s="27" t="s">
         <v>140</v>
       </c>
@@ -10640,8 +11777,15 @@
       <c r="AF96" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG96">
+        <f t="shared" si="2"/>
+        <v>0.14171811133333334</v>
+      </c>
+      <c r="AH96" s="27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="97" spans="1:32">
+    <row r="97" spans="1:34">
       <c r="A97" s="27" t="s">
         <v>141</v>
       </c>
@@ -10738,8 +11882,15 @@
       <c r="AF97" s="31">
         <v>1.8991694E-2</v>
       </c>
+      <c r="AG97">
+        <f t="shared" si="2"/>
+        <v>3.6841603333333333E-3</v>
+      </c>
+      <c r="AH97" s="27">
+        <v>13</v>
+      </c>
     </row>
-    <row r="98" spans="1:32">
+    <row r="98" spans="1:34">
       <c r="A98" s="27" t="s">
         <v>142</v>
       </c>
@@ -10836,8 +11987,15 @@
       <c r="AF98" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG98">
+        <f t="shared" si="2"/>
+        <v>2.1271393333333337E-4</v>
+      </c>
+      <c r="AH98" s="27">
+        <v>7</v>
+      </c>
     </row>
-    <row r="99" spans="1:32">
+    <row r="99" spans="1:34">
       <c r="A99" s="27" t="s">
         <v>143</v>
       </c>
@@ -10934,8 +12092,15 @@
       <c r="AF99" s="29">
         <v>0.195620875</v>
       </c>
+      <c r="AG99">
+        <f t="shared" si="2"/>
+        <v>0.15957282133333331</v>
+      </c>
+      <c r="AH99" s="27">
+        <v>9</v>
+      </c>
     </row>
-    <row r="100" spans="1:32">
+    <row r="100" spans="1:34">
       <c r="A100" s="27" t="s">
         <v>144</v>
       </c>
@@ -11032,8 +12197,15 @@
       <c r="AF100" s="29">
         <v>0.27828986900000002</v>
       </c>
+      <c r="AG100">
+        <f t="shared" si="2"/>
+        <v>0.30633300899999999</v>
+      </c>
+      <c r="AH100" s="27">
+        <v>15</v>
+      </c>
     </row>
-    <row r="101" spans="1:32">
+    <row r="101" spans="1:34">
       <c r="A101" s="27" t="s">
         <v>145</v>
       </c>
@@ -11130,8 +12302,15 @@
       <c r="AF101" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG101">
+        <f t="shared" si="2"/>
+        <v>5.3674780333333331E-2</v>
+      </c>
+      <c r="AH101" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" spans="1:32">
+    <row r="102" spans="1:34">
       <c r="A102" s="39" t="s">
         <v>146</v>
       </c>
@@ -11228,8 +12407,15 @@
       <c r="AF102" s="41">
         <v>6.1207164000000001E-2</v>
       </c>
+      <c r="AG102">
+        <f t="shared" si="2"/>
+        <v>0.14336776700000001</v>
+      </c>
+      <c r="AH102" s="39">
+        <v>12</v>
+      </c>
     </row>
-    <row r="103" spans="1:32">
+    <row r="103" spans="1:34">
       <c r="A103" s="27" t="s">
         <v>147</v>
       </c>
@@ -11326,8 +12512,15 @@
       <c r="AF103" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG103">
+        <f t="shared" si="2"/>
+        <v>4.8470582666666666E-3</v>
+      </c>
+      <c r="AH103" s="27">
+        <v>20</v>
+      </c>
     </row>
-    <row r="104" spans="1:32">
+    <row r="104" spans="1:34">
       <c r="A104" s="27" t="s">
         <v>148</v>
       </c>
@@ -11424,8 +12617,15 @@
       <c r="AF104" s="31">
         <v>2.6756538E-2</v>
       </c>
+      <c r="AG104">
+        <f t="shared" si="2"/>
+        <v>5.6122586666666672E-5</v>
+      </c>
+      <c r="AH104" s="27">
+        <v>50</v>
+      </c>
     </row>
-    <row r="105" spans="1:32">
+    <row r="105" spans="1:34">
       <c r="A105" s="27" t="s">
         <v>149</v>
       </c>
@@ -11522,8 +12722,15 @@
       <c r="AF105" s="29">
         <v>0.107419995</v>
       </c>
+      <c r="AG105">
+        <f t="shared" si="2"/>
+        <v>1.9288707999999998E-2</v>
+      </c>
+      <c r="AH105" s="27">
+        <v>26</v>
+      </c>
     </row>
-    <row r="106" spans="1:32">
+    <row r="106" spans="1:34">
       <c r="A106" s="27" t="s">
         <v>150</v>
       </c>
@@ -11620,8 +12827,15 @@
       <c r="AF106" s="29">
         <v>0.13626769999999999</v>
       </c>
+      <c r="AG106">
+        <f t="shared" si="2"/>
+        <v>0.19086728733333333</v>
+      </c>
+      <c r="AH106" s="27">
+        <v>30</v>
+      </c>
     </row>
-    <row r="107" spans="1:32">
+    <row r="107" spans="1:34">
       <c r="A107" s="27" t="s">
         <v>151</v>
       </c>
@@ -11718,8 +12932,15 @@
       <c r="AF107" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG107">
+        <f t="shared" si="2"/>
+        <v>0.18921379400000002</v>
+      </c>
+      <c r="AH107" s="27">
+        <v>7</v>
+      </c>
     </row>
-    <row r="108" spans="1:32">
+    <row r="108" spans="1:34">
       <c r="A108" s="27" t="s">
         <v>152</v>
       </c>
@@ -11816,8 +13037,15 @@
       <c r="AF108" s="31">
         <v>6.8617770000000003E-3</v>
       </c>
+      <c r="AG108">
+        <f t="shared" si="2"/>
+        <v>8.4658600000000003E-6</v>
+      </c>
+      <c r="AH108" s="27">
+        <v>57</v>
+      </c>
     </row>
-    <row r="109" spans="1:32">
+    <row r="109" spans="1:34">
       <c r="A109" s="27" t="s">
         <v>153</v>
       </c>
@@ -11914,8 +13142,15 @@
       <c r="AF109" s="31">
         <v>3.9339950999999998E-2</v>
       </c>
+      <c r="AG109">
+        <f t="shared" si="2"/>
+        <v>0.120680674</v>
+      </c>
+      <c r="AH109" s="27">
+        <v>7</v>
+      </c>
     </row>
-    <row r="110" spans="1:32">
+    <row r="110" spans="1:34">
       <c r="A110" s="27" t="s">
         <v>154</v>
       </c>
@@ -12012,8 +13247,15 @@
       <c r="AF110" s="31">
         <v>3.4416942999999998E-2</v>
       </c>
+      <c r="AG110">
+        <f t="shared" si="2"/>
+        <v>3.6613853333333332E-3</v>
+      </c>
+      <c r="AH110" s="27">
+        <v>8</v>
+      </c>
     </row>
-    <row r="111" spans="1:32">
+    <row r="111" spans="1:34">
       <c r="A111" s="30" t="s">
         <v>155</v>
       </c>
@@ -12110,8 +13352,15 @@
       <c r="AF111" s="29">
         <v>7.4296023000000003E-2</v>
       </c>
+      <c r="AG111">
+        <f t="shared" si="2"/>
+        <v>2.1266157100000001E-6</v>
+      </c>
+      <c r="AH111" s="27">
+        <v>83</v>
+      </c>
     </row>
-    <row r="112" spans="1:32">
+    <row r="112" spans="1:34">
       <c r="A112" s="62" t="s">
         <v>156</v>
       </c>
@@ -12208,8 +13457,15 @@
       <c r="AF112" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG112">
+        <f t="shared" si="2"/>
+        <v>7.5293936999999991E-2</v>
+      </c>
+      <c r="AH112" s="27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="113" spans="1:32">
+    <row r="113" spans="1:34">
       <c r="A113" s="27" t="s">
         <v>157</v>
       </c>
@@ -12306,8 +13562,15 @@
       <c r="AF113" s="29">
         <v>5.3451130999999999E-2</v>
       </c>
+      <c r="AG113">
+        <f t="shared" si="2"/>
+        <v>8.7981992666666661E-2</v>
+      </c>
+      <c r="AH113" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="114" spans="1:32">
+    <row r="114" spans="1:34">
       <c r="A114" s="63" t="s">
         <v>158</v>
       </c>
@@ -12404,8 +13667,15 @@
       <c r="AF114" s="39" t="s">
         <v>33</v>
       </c>
+      <c r="AG114">
+        <f t="shared" si="2"/>
+        <v>0.16294408899999999</v>
+      </c>
+      <c r="AH114" s="39">
+        <v>3</v>
+      </c>
     </row>
-    <row r="115" spans="1:32">
+    <row r="115" spans="1:34">
       <c r="A115" s="30" t="s">
         <v>159</v>
       </c>
@@ -12502,8 +13772,15 @@
       <c r="AF115" s="29">
         <v>0.15588832</v>
       </c>
+      <c r="AG115">
+        <f t="shared" si="2"/>
+        <v>2.6932874693333332E-4</v>
+      </c>
+      <c r="AH115" s="27">
+        <v>57</v>
+      </c>
     </row>
-    <row r="116" spans="1:32">
+    <row r="116" spans="1:34">
       <c r="A116" s="27" t="s">
         <v>160</v>
       </c>
@@ -12600,8 +13877,15 @@
       <c r="AF116" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG116">
+        <f t="shared" si="2"/>
+        <v>0.23144682866666666</v>
+      </c>
+      <c r="AH116" s="27">
+        <v>5</v>
+      </c>
     </row>
-    <row r="117" spans="1:32">
+    <row r="117" spans="1:34">
       <c r="A117" s="27" t="s">
         <v>161</v>
       </c>
@@ -12698,8 +13982,15 @@
       <c r="AF117" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG117">
+        <f t="shared" si="2"/>
+        <v>0.12994790466666667</v>
+      </c>
+      <c r="AH117" s="27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="118" spans="1:32">
+    <row r="118" spans="1:34">
       <c r="A118" s="39" t="s">
         <v>162</v>
       </c>
@@ -12796,8 +14087,15 @@
       <c r="AF118" s="39" t="s">
         <v>33</v>
       </c>
+      <c r="AG118">
+        <f t="shared" si="2"/>
+        <v>4.7077293333333331E-4</v>
+      </c>
+      <c r="AH118" s="39">
+        <v>22</v>
+      </c>
     </row>
-    <row r="119" spans="1:32">
+    <row r="119" spans="1:34">
       <c r="A119" s="65" t="s">
         <v>163</v>
       </c>
@@ -12894,8 +14192,15 @@
       <c r="AF119" s="26">
         <v>8.2196941567393794E-2</v>
       </c>
+      <c r="AG119">
+        <f t="shared" si="2"/>
+        <v>3.3753950024100984E-4</v>
+      </c>
+      <c r="AH119" s="23">
+        <v>42</v>
+      </c>
     </row>
-    <row r="120" spans="1:32">
+    <row r="120" spans="1:34">
       <c r="A120" s="27" t="s">
         <v>164</v>
       </c>
@@ -12992,8 +14297,15 @@
       <c r="AF120" s="31">
         <v>1.8891102999999999E-2</v>
       </c>
+      <c r="AG120">
+        <f t="shared" si="2"/>
+        <v>1.1542746666666666E-3</v>
+      </c>
+      <c r="AH120" s="27">
+        <v>14</v>
+      </c>
     </row>
-    <row r="121" spans="1:32">
+    <row r="121" spans="1:34">
       <c r="A121" s="27" t="s">
         <v>165</v>
       </c>
@@ -13090,8 +14402,15 @@
       <c r="AF121" s="29">
         <v>6.6616023999999996E-2</v>
       </c>
+      <c r="AG121">
+        <f t="shared" si="2"/>
+        <v>1.2033003E-2</v>
+      </c>
+      <c r="AH121" s="27">
+        <v>7</v>
+      </c>
     </row>
-    <row r="122" spans="1:32">
+    <row r="122" spans="1:34">
       <c r="A122" s="27" t="s">
         <v>166</v>
       </c>
@@ -13188,8 +14507,15 @@
       <c r="AF122" s="29">
         <v>0.12253188299999999</v>
       </c>
+      <c r="AG122">
+        <f t="shared" si="2"/>
+        <v>0.17490530100000001</v>
+      </c>
+      <c r="AH122" s="27">
+        <v>13</v>
+      </c>
     </row>
-    <row r="123" spans="1:32">
+    <row r="123" spans="1:34">
       <c r="A123" s="27" t="s">
         <v>167</v>
       </c>
@@ -13200,7 +14526,7 @@
         <v>0.76298999999999995</v>
       </c>
       <c r="D123" s="58" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="E123" s="27">
         <v>0.44406834499999998</v>
@@ -13209,7 +14535,7 @@
         <v>0.71892999999999996</v>
       </c>
       <c r="G123" s="58" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="H123" s="27">
         <v>1.8091450570000001</v>
@@ -13218,7 +14544,7 @@
         <v>3.8573300000000001</v>
       </c>
       <c r="J123" s="58" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="K123" s="27">
         <v>1</v>
@@ -13286,10 +14612,17 @@
       <c r="AF123" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG123" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH123" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="124" spans="1:32">
+    <row r="124" spans="1:34">
       <c r="A124" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B124" s="27">
         <v>0.73022267299999999</v>
@@ -13384,10 +14717,17 @@
       <c r="AF124" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="AG124">
+        <f t="shared" si="2"/>
+        <v>3.0375414000000003E-2</v>
+      </c>
+      <c r="AH124" s="27">
+        <v>19</v>
+      </c>
     </row>
-    <row r="125" spans="1:32">
+    <row r="125" spans="1:34">
       <c r="A125" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B125" s="27">
         <v>0.70290888200000001</v>
@@ -13482,10 +14822,17 @@
       <c r="AF125" s="31">
         <v>1.0569103E-2</v>
       </c>
+      <c r="AG125">
+        <f t="shared" si="2"/>
+        <v>2.5465698333333332E-3</v>
+      </c>
+      <c r="AH125" s="27">
+        <v>27</v>
+      </c>
     </row>
-    <row r="126" spans="1:32">
+    <row r="126" spans="1:34">
       <c r="A126" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B126" s="3">
         <v>0.60451953416149096</v>
@@ -13581,10 +14928,17 @@
       <c r="AF126" s="21">
         <v>0.200707</v>
       </c>
+      <c r="AG126">
+        <f t="shared" si="2"/>
+        <v>0.3517362</v>
+      </c>
+      <c r="AH126" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="127" spans="1:32">
+    <row r="127" spans="1:34">
       <c r="A127" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B127" s="3">
         <v>0.65296685579196201</v>
@@ -13680,10 +15034,17 @@
       <c r="AF127" s="7">
         <v>9.5315979999999995E-2</v>
       </c>
+      <c r="AG127">
+        <f t="shared" si="2"/>
+        <v>1.7301606333333334E-2</v>
+      </c>
+      <c r="AH127" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="128" spans="1:32">
+    <row r="128" spans="1:34">
       <c r="A128" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B128" s="3">
         <v>0.66931394628099095</v>
@@ -13779,10 +15140,17 @@
       <c r="AF128" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="AG128">
+        <f t="shared" si="2"/>
+        <v>0.16463110333333333</v>
+      </c>
+      <c r="AH128" s="3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="129" spans="1:32">
+    <row r="129" spans="1:34">
       <c r="A129" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B129" s="6">
         <v>0.60390737100000003</v>
@@ -13877,10 +15245,17 @@
       <c r="AF129" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="AG129" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH129" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:32">
+    <row r="130" spans="1:34">
       <c r="A130" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B130" s="3">
         <v>0.62848166358595103</v>
@@ -13976,10 +15351,17 @@
       <c r="AF130" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="AG130" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH130" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="131" spans="1:32">
+    <row r="131" spans="1:34">
       <c r="A131" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" s="3">
         <v>0.69411894291754594</v>
@@ -14075,275 +15457,294 @@
       <c r="AF131" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="AG131">
+        <f t="shared" ref="AG131" si="3">AVERAGE(AA131,AC131,AE131)</f>
+        <v>4.6834623333333332E-2</v>
+      </c>
+      <c r="AH131" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="132" spans="1:32">
+    <row r="132" spans="1:34">
       <c r="A132" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B132" s="1">
         <f>AVERAGE(B2:B131)</f>
         <v>0.71114124153530234</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" ref="C132:AF132" si="1">AVERAGE(C2:C131)</f>
+        <f t="shared" ref="C132:AF132" si="4">AVERAGE(C2:C131)</f>
         <v>0.74910127098068324</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.65236670701101773</v>
       </c>
       <c r="E132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.5739236453479668</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.67889740186094261</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.42656095103286656</v>
       </c>
       <c r="H132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.554916510456688</v>
       </c>
       <c r="I132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.4286562937363221</v>
       </c>
       <c r="J132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4125324503979457</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.108527131782946</v>
       </c>
       <c r="L132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.3410852713178296</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.21353817863823346</v>
       </c>
       <c r="N132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.6111111111111107</v>
       </c>
       <c r="O132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.3710955038190224</v>
       </c>
       <c r="P132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.4012060891914372E-2</v>
       </c>
       <c r="Q132" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.2780022643792592E-2</v>
       </c>
       <c r="S132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.4408296838096101E-2</v>
       </c>
       <c r="T132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.0577034778534674E-2</v>
       </c>
       <c r="U132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.21902884759413357</v>
       </c>
       <c r="V132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.15292295642523213</v>
       </c>
       <c r="W132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1164723412387554</v>
       </c>
       <c r="X132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8027187377548772</v>
       </c>
       <c r="Y132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3132783175251195</v>
       </c>
       <c r="Z132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.91450613607344433</v>
       </c>
       <c r="AA132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11594995315147363</v>
       </c>
       <c r="AB132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.16450279123065414</v>
       </c>
       <c r="AC132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12407446916269681</v>
       </c>
       <c r="AD132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.13769051464866897</v>
       </c>
       <c r="AE132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1248506642345445</v>
       </c>
       <c r="AF132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12504704126638</v>
       </c>
     </row>
-    <row r="133" spans="1:32">
+    <row r="133" spans="1:34">
       <c r="A133" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B133" s="1">
         <f>STDEV(B2:B131)</f>
         <v>5.7245678289866327E-2</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" ref="C133:AF133" si="2">STDEV(C2:C131)</f>
+        <f t="shared" ref="C133:AF133" si="5">STDEV(C2:C131)</f>
         <v>8.3885508743371487E-2</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11402773320110693</v>
       </c>
       <c r="E133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11186211451619221</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15397833742227016</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18678734842226574</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.89535938592255848</v>
       </c>
       <c r="I133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2559884315684069</v>
       </c>
       <c r="J133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.4905559699281381</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14.111852459721979</v>
       </c>
       <c r="L133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.9794317355603042</v>
       </c>
       <c r="M133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.25141860793720699</v>
       </c>
       <c r="N133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.4729897648678634</v>
       </c>
       <c r="O133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.29363960531913241</v>
       </c>
       <c r="P133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.1792965742672954E-2</v>
       </c>
       <c r="Q133" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.0712122208433081E-2</v>
       </c>
       <c r="S133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.669176472197281E-2</v>
       </c>
       <c r="T133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.4783027792466812E-2</v>
       </c>
       <c r="U133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.6346988832474204E-2</v>
       </c>
       <c r="V133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.1281241237794191E-2</v>
       </c>
       <c r="W133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.11316202924556737</v>
       </c>
       <c r="X133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24030880315062214</v>
       </c>
       <c r="Y133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.71225615993562108</v>
       </c>
       <c r="Z133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.82519830483503953</v>
       </c>
       <c r="AA133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13815528450612202</v>
       </c>
       <c r="AB133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13036996193202705</v>
       </c>
       <c r="AC133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.14199005547911267</v>
       </c>
       <c r="AD133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.12296703134322612</v>
       </c>
       <c r="AE133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13966078763946979</v>
       </c>
       <c r="AF133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.9476176175361752E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:32">
+    <row r="134" spans="1:34">
       <c r="Z134" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA134" s="1"/>
-      <c r="AB134" s="1"/>
-      <c r="AC134" s="1"/>
-      <c r="AD134" s="1"/>
-      <c r="AE134" s="1"/>
-      <c r="AF134" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="AA134" s="69">
+        <v>3.1909309999999997E-5</v>
+      </c>
+      <c r="AB134" s="70">
+        <v>2.7527450000000001E-10</v>
+      </c>
+      <c r="AC134" s="70">
+        <v>6.0635810000000002E-9</v>
+      </c>
+      <c r="AD134" s="70">
+        <v>4.510934E-18</v>
+      </c>
+      <c r="AE134" s="70">
+        <v>2.7673040000000002E-9</v>
+      </c>
+      <c r="AF134" s="70">
+        <v>6.3215010000000001E-18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/dataAugust12.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/dataAugust12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="25360" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="25360" windowHeight="16520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="184">
   <si>
     <t>Gene</t>
   </si>
@@ -556,6 +556,21 @@
   </si>
   <si>
     <t>overall p</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Mutaciones</t>
+  </si>
+  <si>
+    <t>Fully conserved mutations</t>
   </si>
 </sst>
 </file>
@@ -695,7 +710,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +732,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +816,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="244">
+  <cellStyleXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1040,8 +1061,244 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1113,8 +1370,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="244">
+  <cellStyles count="480">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1236,6 +1494,124 @@
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1357,6 +1733,124 @@
     <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1687,15 +2181,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH134"/>
+  <dimension ref="A1:AN134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1792,8 +2286,10 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AI1" s="71"/>
+      <c r="AK1" s="71"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:40">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1898,8 +2394,23 @@
       <c r="AH2" s="3">
         <v>3</v>
       </c>
+      <c r="AI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:40">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -2004,8 +2515,23 @@
       <c r="AH3" s="3">
         <v>32</v>
       </c>
+      <c r="AI3" s="9">
+        <v>0.53125</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>0.15740740740699999</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:40">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -2110,8 +2636,20 @@
       <c r="AH4" s="3">
         <v>4</v>
       </c>
+      <c r="AI4" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>1.7241379310299999E-2</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:40">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -2216,8 +2754,17 @@
       <c r="AH5" s="3">
         <v>17</v>
       </c>
+      <c r="AI5" s="9">
+        <v>0.58823529411800002</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>8.2644628099199993E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:40">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2322,8 +2869,17 @@
       <c r="AH6" s="3">
         <v>4</v>
       </c>
+      <c r="AI6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>9.0497737556600004E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:40">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -2428,8 +2984,17 @@
       <c r="AH7" s="3">
         <v>23</v>
       </c>
+      <c r="AI7" s="9">
+        <v>8.6956521739099998E-2</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>5.1282051282099998E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:40">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2534,8 +3099,17 @@
       <c r="AH8" s="3">
         <v>18</v>
       </c>
+      <c r="AI8" s="9">
+        <v>0.38888888888899997</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>1.8867924528299999E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:40">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +3214,17 @@
       <c r="AH9" s="4">
         <v>7</v>
       </c>
+      <c r="AI9" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:40">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2744,8 +3327,17 @@
       <c r="AH10" s="3">
         <v>6</v>
       </c>
+      <c r="AI10" s="9">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>2.17391304348E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:40">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -2850,8 +3442,17 @@
       <c r="AH11" s="3">
         <v>9</v>
       </c>
+      <c r="AI11" s="9">
+        <v>0.555555555556</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>6.25E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:40">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -2956,8 +3557,17 @@
       <c r="AH12" s="3">
         <v>5</v>
       </c>
+      <c r="AI12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -3062,8 +3672,17 @@
       <c r="AH13" s="3">
         <v>5</v>
       </c>
+      <c r="AI13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>1.1111111111100001E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:40">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -3168,8 +3787,17 @@
       <c r="AH14" s="3">
         <v>5</v>
       </c>
+      <c r="AI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:40">
       <c r="A15" s="23" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3901,17 @@
       <c r="AH15" s="23">
         <v>6</v>
       </c>
+      <c r="AI15" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK15" s="24">
+        <v>3.7383177570093455E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:40">
       <c r="A16" s="27" t="s">
         <v>50</v>
       </c>
@@ -3378,8 +4015,17 @@
       <c r="AH16" s="27">
         <v>4</v>
       </c>
+      <c r="AI16" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="AJ16" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK16" s="28">
+        <v>1.37E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:37">
       <c r="A17" s="23" t="s">
         <v>51</v>
       </c>
@@ -3476,15 +4122,8 @@
       <c r="AF17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AG17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH17" s="23">
-        <v>6</v>
-      </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:37">
       <c r="A18" s="27" t="s">
         <v>52</v>
       </c>
@@ -3581,15 +4220,8 @@
       <c r="AF18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AG18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH18" s="27">
-        <v>2</v>
-      </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:37">
       <c r="A19" s="30" t="s">
         <v>54</v>
       </c>
@@ -3693,8 +4325,17 @@
       <c r="AH19" s="27">
         <v>45</v>
       </c>
+      <c r="AI19" s="28">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="AJ19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK19" s="28">
+        <v>0.1074</v>
+      </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:37">
       <c r="A20" s="27" t="s">
         <v>56</v>
       </c>
@@ -3798,8 +4439,17 @@
       <c r="AH20" s="27">
         <v>15</v>
       </c>
+      <c r="AI20" s="28">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="AJ20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK20" s="28">
+        <v>4.9399999999999999E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:37">
       <c r="A21" s="32" t="s">
         <v>57</v>
       </c>
@@ -3896,15 +4546,11 @@
       <c r="AF21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AG21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH21" s="34" t="s">
+      <c r="AK21" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:37">
       <c r="A22" s="23" t="s">
         <v>59</v>
       </c>
@@ -4008,8 +4654,17 @@
       <c r="AH22" s="6">
         <v>8</v>
       </c>
+      <c r="AI22" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AJ22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK22" s="24">
+        <v>3.4482758620689655E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:37">
       <c r="A23" s="27" t="s">
         <v>61</v>
       </c>
@@ -4113,8 +4768,17 @@
       <c r="AH23" s="27">
         <v>15</v>
       </c>
+      <c r="AI23" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AJ23" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK23" s="28">
+        <v>2.7099999999999999E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:37">
       <c r="A24" s="23" t="s">
         <v>62</v>
       </c>
@@ -4218,8 +4882,17 @@
       <c r="AH24" s="23">
         <v>4</v>
       </c>
+      <c r="AI24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK24" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:37">
       <c r="A25" s="27" t="s">
         <v>63</v>
       </c>
@@ -4323,8 +4996,17 @@
       <c r="AH25" s="27">
         <v>9</v>
       </c>
+      <c r="AI25" s="28">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="AJ25" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK25" s="28">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:37">
       <c r="A26" s="27" t="s">
         <v>64</v>
       </c>
@@ -4428,8 +5110,17 @@
       <c r="AH26" s="27">
         <v>6</v>
       </c>
+      <c r="AI26" s="28">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AJ26" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK26" s="28">
+        <v>8.2000000000000007E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:37">
       <c r="A27" s="27" t="s">
         <v>66</v>
       </c>
@@ -4533,8 +5224,17 @@
       <c r="AH27" s="27">
         <v>10</v>
       </c>
+      <c r="AI27" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="AJ27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" s="28">
+        <v>1.3599999999999999E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:37">
       <c r="A28" s="30" t="s">
         <v>67</v>
       </c>
@@ -4638,8 +5338,17 @@
       <c r="AH28" s="27">
         <v>75</v>
       </c>
+      <c r="AI28" s="28">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="AJ28" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK28" s="28">
+        <v>7.7600000000000002E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:37">
       <c r="A29" s="27" t="s">
         <v>68</v>
       </c>
@@ -4736,15 +5445,11 @@
       <c r="AF29" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AG29" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH29" s="27">
-        <v>3</v>
+      <c r="AK29" s="28">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:37">
       <c r="A30" s="27" t="s">
         <v>69</v>
       </c>
@@ -4848,8 +5553,17 @@
       <c r="AH30" s="27">
         <v>5</v>
       </c>
+      <c r="AI30" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="AJ30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK30" s="28">
+        <v>1.11E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:37">
       <c r="A31" s="27" t="s">
         <v>70</v>
       </c>
@@ -4946,15 +5660,11 @@
       <c r="AF31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AG31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH31" s="27">
-        <v>0</v>
+      <c r="AK31" s="27" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:37">
       <c r="A32" s="27" t="s">
         <v>71</v>
       </c>
@@ -5058,8 +5768,17 @@
       <c r="AH32" s="27">
         <v>3</v>
       </c>
+      <c r="AI32" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK32" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:37">
       <c r="A33" s="27" t="s">
         <v>72</v>
       </c>
@@ -5163,8 +5882,17 @@
       <c r="AH33" s="27">
         <v>7</v>
       </c>
+      <c r="AI33" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK33" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:37">
       <c r="A34" s="27" t="s">
         <v>73</v>
       </c>
@@ -5268,8 +5996,17 @@
       <c r="AH34" s="27">
         <v>9</v>
       </c>
+      <c r="AI34" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK34" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:37">
       <c r="A35" s="27" t="s">
         <v>74</v>
       </c>
@@ -5373,8 +6110,17 @@
       <c r="AH35" s="27">
         <v>3</v>
       </c>
+      <c r="AI35" s="28">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AJ35" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK35" s="28">
+        <v>4.8999999999999998E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:37">
       <c r="A36" s="27" t="s">
         <v>75</v>
       </c>
@@ -5478,8 +6224,17 @@
       <c r="AH36" s="27">
         <v>9</v>
       </c>
+      <c r="AI36" s="28">
+        <v>0.1111</v>
+      </c>
+      <c r="AJ36" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK36" s="28">
+        <v>5.3E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:37">
       <c r="A37" s="27" t="s">
         <v>76</v>
       </c>
@@ -5583,8 +6338,17 @@
       <c r="AH37" s="27">
         <v>23</v>
       </c>
+      <c r="AI37" s="28">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="AJ37" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK37" s="28">
+        <v>2.2000000000000001E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:37">
       <c r="A38" s="27" t="s">
         <v>77</v>
       </c>
@@ -5688,8 +6452,17 @@
       <c r="AH38" s="27">
         <v>13</v>
       </c>
+      <c r="AI38" s="28">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="AJ38" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK38" s="28">
+        <v>3.39E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:37">
       <c r="A39" s="27" t="s">
         <v>78</v>
       </c>
@@ -5793,8 +6566,17 @@
       <c r="AH39" s="27">
         <v>8</v>
       </c>
+      <c r="AI39" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ39" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK39" s="28">
+        <v>7.8399999999999997E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:37">
       <c r="A40" s="27" t="s">
         <v>79</v>
       </c>
@@ -5898,8 +6680,17 @@
       <c r="AH40" s="27">
         <v>9</v>
       </c>
+      <c r="AI40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK40" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:37">
       <c r="A41" s="27" t="s">
         <v>80</v>
       </c>
@@ -6003,8 +6794,17 @@
       <c r="AH41" s="27">
         <v>9</v>
       </c>
+      <c r="AI41" s="28">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AJ41" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK41" s="28">
+        <v>5.8299999999999998E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:37">
       <c r="A42" s="27" t="s">
         <v>81</v>
       </c>
@@ -6108,8 +6908,17 @@
       <c r="AH42" s="27">
         <v>10</v>
       </c>
+      <c r="AI42" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ42" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK42" s="28">
+        <v>2.3400000000000001E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:37">
       <c r="A43" s="27" t="s">
         <v>82</v>
       </c>
@@ -6213,8 +7022,17 @@
       <c r="AH43" s="27">
         <v>2</v>
       </c>
+      <c r="AI43" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ43" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK43" s="28">
+        <v>4.8999999999999998E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:37">
       <c r="A44" s="27" t="s">
         <v>83</v>
       </c>
@@ -6311,15 +7129,11 @@
       <c r="AF44" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AG44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH44" s="27">
-        <v>1</v>
+      <c r="AK44" s="28">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:37">
       <c r="A45" s="27" t="s">
         <v>84</v>
       </c>
@@ -6423,8 +7237,17 @@
       <c r="AH45" s="27">
         <v>9</v>
       </c>
+      <c r="AI45" s="28">
+        <v>0.1111</v>
+      </c>
+      <c r="AJ45" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK45" s="28">
+        <v>1.3899999999999999E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:37">
       <c r="A46" s="39" t="s">
         <v>85</v>
       </c>
@@ -6528,8 +7351,17 @@
       <c r="AH46" s="39">
         <v>16</v>
       </c>
+      <c r="AI46" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="AJ46" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK46" s="40">
+        <v>3.0800000000000001E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:37">
       <c r="A47" s="23" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7465,17 @@
       <c r="AH47" s="23">
         <v>8</v>
       </c>
+      <c r="AI47" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="AJ47" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK47" s="24">
+        <v>2.0618556701030927E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:37">
       <c r="A48" s="42" t="s">
         <v>87</v>
       </c>
@@ -6731,15 +7572,11 @@
       <c r="AF48" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AG48" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH48" s="42">
-        <v>0</v>
+      <c r="AK48" s="42" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:37">
       <c r="A49" s="27" t="s">
         <v>88</v>
       </c>
@@ -6836,15 +7673,11 @@
       <c r="AF49" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AG49" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH49" s="27">
-        <v>1</v>
+      <c r="AK49" s="28">
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:37">
       <c r="A50" s="35" t="s">
         <v>89</v>
       </c>
@@ -6948,8 +7781,17 @@
       <c r="AH50" s="39">
         <v>21</v>
       </c>
+      <c r="AI50" s="40">
+        <v>0.8095</v>
+      </c>
+      <c r="AJ50" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK50" s="40">
+        <v>0.16039999999999999</v>
+      </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:37">
       <c r="A51" s="23" t="s">
         <v>90</v>
       </c>
@@ -7053,8 +7895,17 @@
       <c r="AH51" s="23">
         <v>23</v>
       </c>
+      <c r="AI51" s="24">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="AJ51" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK51" s="24">
+        <v>2.4896265560165973E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:37">
       <c r="A52" s="44" t="s">
         <v>92</v>
       </c>
@@ -7158,8 +8009,17 @@
       <c r="AH52" s="27">
         <v>23</v>
       </c>
+      <c r="AI52" s="28">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="AJ52" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK52" s="28">
+        <v>2.2000000000000001E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:37">
       <c r="A53" s="39" t="s">
         <v>93</v>
       </c>
@@ -7263,8 +8123,17 @@
       <c r="AH53" s="39">
         <v>5</v>
       </c>
+      <c r="AI53" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="AJ53" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK53" s="40">
+        <v>1.5900000000000001E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:37">
       <c r="A54" s="27" t="s">
         <v>94</v>
       </c>
@@ -7368,8 +8237,17 @@
       <c r="AH54" s="27">
         <v>11</v>
       </c>
+      <c r="AI54" s="28">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="AJ54" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK54" s="28">
+        <v>3.8800000000000001E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:37">
       <c r="A55" s="27" t="s">
         <v>95</v>
       </c>
@@ -7473,8 +8351,17 @@
       <c r="AH55" s="27">
         <v>7</v>
       </c>
+      <c r="AI55" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK55" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:37">
       <c r="A56" s="27" t="s">
         <v>96</v>
       </c>
@@ -7578,8 +8465,17 @@
       <c r="AH56" s="27">
         <v>2</v>
       </c>
+      <c r="AI56" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ56" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK56" s="28">
+        <v>3.8E-3</v>
+      </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:37">
       <c r="A57" s="46" t="s">
         <v>97</v>
       </c>
@@ -7683,8 +8579,17 @@
       <c r="AH57" s="39">
         <v>18</v>
       </c>
+      <c r="AI57" s="40">
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK57" s="40">
+        <v>2.8000000000000001E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:37">
       <c r="A58" s="27" t="s">
         <v>98</v>
       </c>
@@ -7788,8 +8693,17 @@
       <c r="AH58" s="27">
         <v>5</v>
       </c>
+      <c r="AI58" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="AJ58" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK58" s="28">
+        <v>1.09E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:37">
       <c r="A59" s="30" t="s">
         <v>99</v>
       </c>
@@ -7833,7 +8747,8 @@
         <v>17</v>
       </c>
       <c r="O59" s="28">
-        <v>0.53129999999999999</v>
+        <f>17/29</f>
+        <v>0.58620689655172409</v>
       </c>
       <c r="P59" s="28">
         <v>0.21790000000000001</v>
@@ -7893,8 +8808,17 @@
       <c r="AH59" s="27">
         <v>32</v>
       </c>
+      <c r="AI59" s="28">
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AJ59" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK59" s="28">
+        <v>0.21790000000000001</v>
+      </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:37">
       <c r="A60" s="27" t="s">
         <v>100</v>
       </c>
@@ -7998,8 +8922,17 @@
       <c r="AH60" s="27">
         <v>11</v>
       </c>
+      <c r="AI60" s="28">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="AJ60" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK60" s="28">
+        <v>4.02E-2</v>
+      </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:37">
       <c r="A61" s="27" t="s">
         <v>101</v>
       </c>
@@ -8103,8 +9036,17 @@
       <c r="AH61" s="27">
         <v>24</v>
       </c>
+      <c r="AI61" s="28">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="AJ61" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK61" s="28">
+        <v>9.2700000000000005E-2</v>
+      </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:37">
       <c r="A62" s="27" t="s">
         <v>102</v>
       </c>
@@ -8201,15 +9143,11 @@
       <c r="AF62" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="AG62" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH62" s="27">
-        <v>4</v>
+      <c r="AK62" s="28">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:37">
       <c r="A63" s="32" t="s">
         <v>103</v>
       </c>
@@ -8314,8 +9252,17 @@
       <c r="AH63" s="32">
         <v>5</v>
       </c>
+      <c r="AI63" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK63" s="52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:37">
       <c r="A64" s="27" t="s">
         <v>104</v>
       </c>
@@ -8412,15 +9359,11 @@
       <c r="AF64" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="AG64" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH64" s="27">
-        <v>2</v>
+      <c r="AK64" s="28">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:37">
       <c r="A65" s="27" t="s">
         <v>105</v>
       </c>
@@ -8524,8 +9467,17 @@
       <c r="AH65" s="27">
         <v>5</v>
       </c>
+      <c r="AI65" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK65" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:37">
       <c r="A66" s="27" t="s">
         <v>106</v>
       </c>
@@ -8622,15 +9574,11 @@
       <c r="AF66" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="AG66" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH66" s="27">
-        <v>1</v>
+      <c r="AK66" s="28">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:37">
       <c r="A67" s="27" t="s">
         <v>107</v>
       </c>
@@ -8727,15 +9675,11 @@
       <c r="AF67" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="AG67" t="e">
-        <f t="shared" ref="AG67:AG130" si="2">AVERAGE(AA67,AC67,AE67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH67" s="27">
-        <v>1</v>
+      <c r="AK67" s="28">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:37">
       <c r="A68" s="27" t="s">
         <v>108</v>
       </c>
@@ -8833,14 +9777,23 @@
         <v>7.6084450000000001E-3</v>
       </c>
       <c r="AG68">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AG67:AG130" si="2">AVERAGE(AA68,AC68,AE68)</f>
         <v>9.3317554999999996E-2</v>
       </c>
       <c r="AH68" s="27">
         <v>14</v>
       </c>
+      <c r="AI68" s="28">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AJ68" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK68" s="28">
+        <v>3.6700000000000003E-2</v>
+      </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:37">
       <c r="A69" s="27" t="s">
         <v>109</v>
       </c>
@@ -8944,8 +9897,17 @@
       <c r="AH69" s="27">
         <v>4</v>
       </c>
+      <c r="AI69" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK69" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:37">
       <c r="A70" s="27" t="s">
         <v>110</v>
       </c>
@@ -9049,8 +10011,17 @@
       <c r="AH70" s="27">
         <v>3</v>
       </c>
+      <c r="AI70" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK70" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:37">
       <c r="A71" s="27" t="s">
         <v>111</v>
       </c>
@@ -9154,8 +10125,17 @@
       <c r="AH71" s="27">
         <v>14</v>
       </c>
+      <c r="AI71" s="28">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="AJ71" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK71" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:37">
       <c r="A72" s="39" t="s">
         <v>112</v>
       </c>
@@ -9259,8 +10239,17 @@
       <c r="AH72" s="39">
         <v>12</v>
       </c>
+      <c r="AI72" s="40">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AJ72" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK72" s="40">
+        <v>9.0899999999999995E-2</v>
+      </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:37">
       <c r="A73" s="23" t="s">
         <v>113</v>
       </c>
@@ -9364,8 +10353,17 @@
       <c r="AH73" s="23">
         <v>13</v>
       </c>
+      <c r="AI73" s="24">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="AJ73" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK73" s="24">
+        <v>4.1353383458646614E-2</v>
+      </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:37">
       <c r="A74" s="27" t="s">
         <v>114</v>
       </c>
@@ -9469,8 +10467,17 @@
       <c r="AH74" s="27">
         <v>5</v>
       </c>
+      <c r="AI74" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="AJ74" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK74" s="28">
+        <v>9.2999999999999992E-3</v>
+      </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:37">
       <c r="A75" s="27" t="s">
         <v>115</v>
       </c>
@@ -9574,8 +10581,17 @@
       <c r="AH75" s="27">
         <v>6</v>
       </c>
+      <c r="AI75" s="28">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="AJ75" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK75" s="28">
+        <v>2.5899999999999999E-2</v>
+      </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:37">
       <c r="A76" s="32" t="s">
         <v>116</v>
       </c>
@@ -9673,15 +10689,11 @@
       <c r="AF76" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AG76" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH76" s="33">
-        <v>1</v>
+      <c r="AK76" s="57">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:37">
       <c r="A77" s="27" t="s">
         <v>117</v>
       </c>
@@ -9785,8 +10797,17 @@
       <c r="AH77" s="27">
         <v>4</v>
       </c>
+      <c r="AI77" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="AJ77" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK77" s="28">
+        <v>7.1400000000000005E-2</v>
+      </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:37">
       <c r="A78" s="27" t="s">
         <v>119</v>
       </c>
@@ -9890,8 +10911,17 @@
       <c r="AH78" s="27">
         <v>6</v>
       </c>
+      <c r="AI78" s="28">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AJ78" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK78" s="28">
+        <v>3.2300000000000002E-2</v>
+      </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:37">
       <c r="A79" s="1" t="s">
         <v>120</v>
       </c>
@@ -9995,8 +11025,17 @@
       <c r="AH79" s="27">
         <v>3</v>
       </c>
+      <c r="AI79" s="28">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AJ79" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK79" s="28">
+        <v>2.06E-2</v>
+      </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:37">
       <c r="A80" s="30" t="s">
         <v>122</v>
       </c>
@@ -10040,7 +11079,8 @@
         <v>28</v>
       </c>
       <c r="O80" s="28">
-        <v>0.9032</v>
+        <f>28/30</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="P80" s="28">
         <v>8.1600000000000006E-2</v>
@@ -10100,8 +11140,17 @@
       <c r="AH80" s="27">
         <v>31</v>
       </c>
+      <c r="AI80" s="28">
+        <v>0.9032</v>
+      </c>
+      <c r="AJ80" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK80" s="28">
+        <v>8.1600000000000006E-2</v>
+      </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:37">
       <c r="A81" s="32" t="s">
         <v>123</v>
       </c>
@@ -10199,15 +11248,11 @@
       <c r="AF81" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AG81" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH81" s="33">
-        <v>1</v>
+      <c r="AK81" s="57">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:37">
       <c r="A82" s="27" t="s">
         <v>124</v>
       </c>
@@ -10311,8 +11356,17 @@
       <c r="AH82" s="27">
         <v>36</v>
       </c>
+      <c r="AI82" s="28">
+        <v>0.1389</v>
+      </c>
+      <c r="AJ82" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK82" s="28">
+        <v>1.2999999999999999E-3</v>
+      </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:37">
       <c r="A83" s="39" t="s">
         <v>126</v>
       </c>
@@ -10416,8 +11470,17 @@
       <c r="AH83" s="39">
         <v>25</v>
       </c>
+      <c r="AI83" s="40">
+        <v>0.16</v>
+      </c>
+      <c r="AJ83" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK83" s="40">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:37">
       <c r="A84" s="23" t="s">
         <v>128</v>
       </c>
@@ -10514,15 +11577,11 @@
       <c r="AF84" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AG84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH84" s="23">
-        <v>2</v>
+      <c r="AK84" s="24">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:37">
       <c r="A85" s="27" t="s">
         <v>129</v>
       </c>
@@ -10619,15 +11678,11 @@
       <c r="AF85" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AG85" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH85" s="27">
-        <v>3</v>
+      <c r="AK85" s="28">
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:37">
       <c r="A86" s="30" t="s">
         <v>130</v>
       </c>
@@ -10731,8 +11786,17 @@
       <c r="AH86" s="27">
         <v>19</v>
       </c>
+      <c r="AI86" s="28">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="AJ86" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK86" s="28">
+        <v>2.3900000000000001E-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:37">
       <c r="A87" s="3" t="s">
         <v>131</v>
       </c>
@@ -10837,8 +11901,17 @@
       <c r="AH87" s="4">
         <v>5</v>
       </c>
+      <c r="AI87" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK87" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:37">
       <c r="A88" s="3" t="s">
         <v>132</v>
       </c>
@@ -10943,8 +12016,17 @@
       <c r="AH88" s="3">
         <v>10</v>
       </c>
+      <c r="AI88" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AJ88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK88" s="5">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:37">
       <c r="A89" s="32" t="s">
         <v>133</v>
       </c>
@@ -11049,8 +12131,17 @@
       <c r="AH89" s="33">
         <v>3</v>
       </c>
+      <c r="AI89" s="52">
+        <v>0.33</v>
+      </c>
+      <c r="AJ89" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK89" s="52">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:37">
       <c r="A90" s="27" t="s">
         <v>134</v>
       </c>
@@ -11147,15 +12238,11 @@
       <c r="AF90" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AG90" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH90" s="27">
-        <v>2</v>
+      <c r="AK90" s="28">
+        <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:37">
       <c r="A91" s="27" t="s">
         <v>135</v>
       </c>
@@ -11252,15 +12339,11 @@
       <c r="AF91" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AG91" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH91" s="27">
+      <c r="AK91" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:37">
       <c r="A92" s="27" t="s">
         <v>136</v>
       </c>
@@ -11364,8 +12447,17 @@
       <c r="AH92" s="27">
         <v>5</v>
       </c>
+      <c r="AI92" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AJ92" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK92" s="28">
+        <v>9.7999999999999997E-3</v>
+      </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:37">
       <c r="A93" s="27" t="s">
         <v>137</v>
       </c>
@@ -11469,8 +12561,17 @@
       <c r="AH93" s="27">
         <v>9</v>
       </c>
+      <c r="AI93" s="28">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AJ93" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK93" s="28">
+        <v>1.4E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:37">
       <c r="A94" s="62" t="s">
         <v>138</v>
       </c>
@@ -11574,8 +12675,17 @@
       <c r="AH94" s="27">
         <v>4</v>
       </c>
+      <c r="AI94" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK94" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:37">
       <c r="A95" s="30" t="s">
         <v>139</v>
       </c>
@@ -11679,8 +12789,17 @@
       <c r="AH95" s="27">
         <v>28</v>
       </c>
+      <c r="AI95" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="AJ95" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK95" s="28">
+        <v>0.1721</v>
+      </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:37">
       <c r="A96" s="27" t="s">
         <v>140</v>
       </c>
@@ -11784,8 +12903,17 @@
       <c r="AH96" s="27">
         <v>4</v>
       </c>
+      <c r="AI96" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="AJ96" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK96" s="28">
+        <v>3.2599999999999997E-2</v>
+      </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:37">
       <c r="A97" s="27" t="s">
         <v>141</v>
       </c>
@@ -11889,8 +13017,17 @@
       <c r="AH97" s="27">
         <v>13</v>
       </c>
+      <c r="AI97" s="28">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AJ97" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK97" s="28">
+        <v>1.61E-2</v>
+      </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:37">
       <c r="A98" s="27" t="s">
         <v>142</v>
       </c>
@@ -11994,8 +13131,17 @@
       <c r="AH98" s="27">
         <v>7</v>
       </c>
+      <c r="AI98" s="28">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="AJ98" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK98" s="28">
+        <v>1.43E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:37">
       <c r="A99" s="27" t="s">
         <v>143</v>
       </c>
@@ -12099,8 +13245,17 @@
       <c r="AH99" s="27">
         <v>9</v>
       </c>
+      <c r="AI99" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK99" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:37">
       <c r="A100" s="27" t="s">
         <v>144</v>
       </c>
@@ -12204,8 +13359,17 @@
       <c r="AH100" s="27">
         <v>15</v>
       </c>
+      <c r="AI100" s="28">
+        <v>0.4667</v>
+      </c>
+      <c r="AJ100" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK100" s="28">
+        <v>2.7900000000000001E-2</v>
+      </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:37">
       <c r="A101" s="27" t="s">
         <v>145</v>
       </c>
@@ -12309,8 +13473,17 @@
       <c r="AH101" s="27">
         <v>6</v>
       </c>
+      <c r="AI101" s="28">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AJ101" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK101" s="28">
+        <v>4.82E-2</v>
+      </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:37">
       <c r="A102" s="39" t="s">
         <v>146</v>
       </c>
@@ -12414,8 +13587,17 @@
       <c r="AH102" s="39">
         <v>12</v>
       </c>
+      <c r="AI102" s="40">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="AJ102" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK102" s="40">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:37">
       <c r="A103" s="27" t="s">
         <v>147</v>
       </c>
@@ -12519,8 +13701,17 @@
       <c r="AH103" s="27">
         <v>20</v>
       </c>
+      <c r="AI103" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="AJ103" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK103" s="28">
+        <v>0.21429999999999999</v>
+      </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:37">
       <c r="A104" s="27" t="s">
         <v>148</v>
       </c>
@@ -12624,8 +13815,17 @@
       <c r="AH104" s="27">
         <v>50</v>
       </c>
+      <c r="AI104" s="28">
+        <v>0.66</v>
+      </c>
+      <c r="AJ104" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK104" s="28">
+        <v>6.8900000000000003E-2</v>
+      </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:37">
       <c r="A105" s="27" t="s">
         <v>149</v>
       </c>
@@ -12729,8 +13929,17 @@
       <c r="AH105" s="27">
         <v>26</v>
       </c>
+      <c r="AI105" s="28">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="AJ105" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK105" s="28">
+        <v>4.0300000000000002E-2</v>
+      </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:37">
       <c r="A106" s="27" t="s">
         <v>150</v>
       </c>
@@ -12834,8 +14043,17 @@
       <c r="AH106" s="27">
         <v>30</v>
       </c>
+      <c r="AI106" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="AJ106" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK106" s="28">
+        <v>5.1900000000000002E-2</v>
+      </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:37">
       <c r="A107" s="27" t="s">
         <v>151</v>
       </c>
@@ -12939,8 +14157,17 @@
       <c r="AH107" s="27">
         <v>7</v>
       </c>
+      <c r="AI107" s="28">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="AJ107" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK107" s="28">
+        <v>1.03E-2</v>
+      </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:37">
       <c r="A108" s="27" t="s">
         <v>152</v>
       </c>
@@ -13044,8 +14271,17 @@
       <c r="AH108" s="27">
         <v>57</v>
       </c>
+      <c r="AI108" s="28">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="AJ108" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK108" s="28">
+        <v>0.14910000000000001</v>
+      </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:37">
       <c r="A109" s="27" t="s">
         <v>153</v>
       </c>
@@ -13149,8 +14385,17 @@
       <c r="AH109" s="27">
         <v>7</v>
       </c>
+      <c r="AI109" s="28">
+        <v>0.1429</v>
+      </c>
+      <c r="AJ109" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK109" s="28">
+        <v>8.3000000000000001E-3</v>
+      </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:37">
       <c r="A110" s="27" t="s">
         <v>154</v>
       </c>
@@ -13254,8 +14499,17 @@
       <c r="AH110" s="27">
         <v>8</v>
       </c>
+      <c r="AI110" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="AJ110" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK110" s="28">
+        <v>1.8800000000000001E-2</v>
+      </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:37">
       <c r="A111" s="30" t="s">
         <v>155</v>
       </c>
@@ -13359,8 +14613,17 @@
       <c r="AH111" s="27">
         <v>83</v>
       </c>
+      <c r="AI111" s="28">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AJ111" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK111" s="28">
+        <v>0.36209999999999998</v>
+      </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:37">
       <c r="A112" s="62" t="s">
         <v>156</v>
       </c>
@@ -13464,8 +14727,17 @@
       <c r="AH112" s="27">
         <v>2</v>
       </c>
+      <c r="AI112" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK112" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:37">
       <c r="A113" s="27" t="s">
         <v>157</v>
       </c>
@@ -13569,8 +14841,17 @@
       <c r="AH113" s="27">
         <v>6</v>
       </c>
+      <c r="AI113" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ113" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK113" s="28">
+        <v>3.5700000000000003E-2</v>
+      </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:37">
       <c r="A114" s="63" t="s">
         <v>158</v>
       </c>
@@ -13674,8 +14955,17 @@
       <c r="AH114" s="39">
         <v>3</v>
       </c>
+      <c r="AI114" s="40">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AJ114" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK114" s="40">
+        <v>2.06E-2</v>
+      </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:37">
       <c r="A115" s="30" t="s">
         <v>159</v>
       </c>
@@ -13779,8 +15069,17 @@
       <c r="AH115" s="27">
         <v>57</v>
       </c>
+      <c r="AI115" s="28">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="AJ115" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK115" s="28">
+        <v>5.5800000000000002E-2</v>
+      </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:37">
       <c r="A116" s="27" t="s">
         <v>160</v>
       </c>
@@ -13884,8 +15183,17 @@
       <c r="AH116" s="27">
         <v>5</v>
       </c>
+      <c r="AI116" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="AJ116" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK116" s="28">
+        <v>2.63E-2</v>
+      </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:37">
       <c r="A117" s="27" t="s">
         <v>161</v>
       </c>
@@ -13989,8 +15297,17 @@
       <c r="AH117" s="27">
         <v>2</v>
       </c>
+      <c r="AI117" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ117" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK117" s="28">
+        <v>5.1000000000000004E-3</v>
+      </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:37">
       <c r="A118" s="39" t="s">
         <v>162</v>
       </c>
@@ -14094,8 +15411,17 @@
       <c r="AH118" s="39">
         <v>22</v>
       </c>
+      <c r="AI118" s="40">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="AJ118" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK118" s="40">
+        <v>6.13E-2</v>
+      </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:37">
       <c r="A119" s="65" t="s">
         <v>163</v>
       </c>
@@ -14139,7 +15465,8 @@
         <v>34</v>
       </c>
       <c r="O119" s="24">
-        <v>0.80952380952380953</v>
+        <f>34/40</f>
+        <v>0.85</v>
       </c>
       <c r="P119" s="24">
         <v>0.12454212454212454</v>
@@ -14199,8 +15526,17 @@
       <c r="AH119" s="23">
         <v>42</v>
       </c>
+      <c r="AI119" s="24">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="AJ119" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK119" s="24">
+        <v>0.12454212454212454</v>
+      </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:37">
       <c r="A120" s="27" t="s">
         <v>164</v>
       </c>
@@ -14304,8 +15640,17 @@
       <c r="AH120" s="27">
         <v>14</v>
       </c>
+      <c r="AI120" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ120" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK120" s="28">
+        <v>3.85E-2</v>
+      </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:37">
       <c r="A121" s="27" t="s">
         <v>165</v>
       </c>
@@ -14409,8 +15754,17 @@
       <c r="AH121" s="27">
         <v>7</v>
       </c>
+      <c r="AI121" s="28">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AJ121" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK121" s="28">
+        <v>1.9E-2</v>
+      </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:37">
       <c r="A122" s="27" t="s">
         <v>166</v>
       </c>
@@ -14514,8 +15868,17 @@
       <c r="AH122" s="27">
         <v>13</v>
       </c>
+      <c r="AI122" s="28">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="AJ122" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK122" s="28">
+        <v>2.8799999999999999E-2</v>
+      </c>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:37">
       <c r="A123" s="27" t="s">
         <v>167</v>
       </c>
@@ -14612,15 +15975,11 @@
       <c r="AF123" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AG123" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH123" s="27">
-        <v>1</v>
+      <c r="AK123" s="28">
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:37">
       <c r="A124" s="27" t="s">
         <v>168</v>
       </c>
@@ -14724,8 +16083,17 @@
       <c r="AH124" s="27">
         <v>19</v>
       </c>
+      <c r="AI124" s="28">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="AJ124" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK124" s="28">
+        <v>6.1499999999999999E-2</v>
+      </c>
     </row>
-    <row r="125" spans="1:34">
+    <row r="125" spans="1:37">
       <c r="A125" s="27" t="s">
         <v>169</v>
       </c>
@@ -14829,8 +16197,17 @@
       <c r="AH125" s="27">
         <v>27</v>
       </c>
+      <c r="AI125" s="28">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="AJ125" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK125" s="28">
+        <v>5.8799999999999998E-2</v>
+      </c>
     </row>
-    <row r="126" spans="1:34">
+    <row r="126" spans="1:37">
       <c r="A126" s="3" t="s">
         <v>170</v>
       </c>
@@ -14935,8 +16312,17 @@
       <c r="AH126" s="3">
         <v>7</v>
       </c>
+      <c r="AI126" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ126" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK126" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:34">
+    <row r="127" spans="1:37">
       <c r="A127" s="3" t="s">
         <v>171</v>
       </c>
@@ -15041,8 +16427,17 @@
       <c r="AH127" s="3">
         <v>6</v>
       </c>
+      <c r="AI127" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AJ127" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK127" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
-    <row r="128" spans="1:34">
+    <row r="128" spans="1:37">
       <c r="A128" s="3" t="s">
         <v>172</v>
       </c>
@@ -15147,8 +16542,17 @@
       <c r="AH128" s="3">
         <v>9</v>
       </c>
+      <c r="AI128" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AJ128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK128" s="5">
+        <v>2.6700000000000002E-2</v>
+      </c>
     </row>
-    <row r="129" spans="1:34">
+    <row r="129" spans="1:37">
       <c r="A129" s="3" t="s">
         <v>173</v>
       </c>
@@ -15245,15 +16649,11 @@
       <c r="AF129" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AG129" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH129" s="3">
-        <v>0</v>
+      <c r="AK129" s="68" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:34">
+    <row r="130" spans="1:37">
       <c r="A130" s="3" t="s">
         <v>174</v>
       </c>
@@ -15351,15 +16751,11 @@
       <c r="AF130" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AG130" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH130" s="3">
-        <v>1</v>
+      <c r="AK130" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:34">
+    <row r="131" spans="1:37">
       <c r="A131" s="3" t="s">
         <v>175</v>
       </c>
@@ -15464,8 +16860,17 @@
       <c r="AH131" s="3">
         <v>6</v>
       </c>
+      <c r="AI131" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AJ131" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK131" s="5">
+        <v>3.1899999999999998E-2</v>
+      </c>
     </row>
-    <row r="132" spans="1:34">
+    <row r="132" spans="1:37">
       <c r="A132" s="1" t="s">
         <v>176</v>
       </c>
@@ -15523,7 +16928,7 @@
       </c>
       <c r="O132" s="1">
         <f t="shared" si="4"/>
-        <v>0.3710955038190224</v>
+        <v>0.37209166588538151</v>
       </c>
       <c r="P132" s="1">
         <f t="shared" si="4"/>
@@ -15594,7 +16999,7 @@
         <v>0.12504704126638</v>
       </c>
     </row>
-    <row r="133" spans="1:34">
+    <row r="133" spans="1:37">
       <c r="A133" s="1" t="s">
         <v>177</v>
       </c>
@@ -15652,7 +17057,7 @@
       </c>
       <c r="O133" s="1">
         <f t="shared" si="5"/>
-        <v>0.29363960531913241</v>
+        <v>0.29487103542785964</v>
       </c>
       <c r="P133" s="1">
         <f t="shared" si="5"/>
@@ -15723,7 +17128,7 @@
         <v>9.9476176175361752E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:34">
+    <row r="134" spans="1:37">
       <c r="Z134" s="1" t="s">
         <v>178</v>
       </c>

--- a/yeast_replaceable_genes/sequences/all_other_mendelian/dataAugust12.xlsx
+++ b/yeast_replaceable_genes/sequences/all_other_mendelian/dataAugust12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="25360" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="4160" windowWidth="25360" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="198">
   <si>
     <t>Gene</t>
   </si>
@@ -571,6 +571,48 @@
   </si>
   <si>
     <t>Fully conserved mutations</t>
+  </si>
+  <si>
+    <t>KIF1B</t>
+  </si>
+  <si>
+    <t>KIF5A</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>hmzdy</t>
+  </si>
+  <si>
+    <t>LFNG</t>
+  </si>
+  <si>
+    <t>LIPA</t>
+  </si>
+  <si>
+    <t>LMAN1</t>
+  </si>
+  <si>
+    <t>LMNA</t>
+  </si>
+  <si>
+    <t>LRPPRC</t>
+  </si>
+  <si>
+    <t>LYST</t>
+  </si>
+  <si>
+    <t>MAGT1</t>
+  </si>
+  <si>
+    <t>MAN2B1</t>
+  </si>
+  <si>
+    <t>MANBA</t>
   </si>
 </sst>
 </file>
@@ -710,7 +752,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +780,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +864,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="480">
+  <cellStyleXfs count="550">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1297,8 +1345,78 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1371,8 +1489,12 @@
     <xf numFmtId="11" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="480">
+  <cellStyles count="550">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1612,6 +1734,41 @@
     <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1851,6 +2008,41 @@
     <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2181,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN134"/>
+  <dimension ref="A1:AN147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+    <sheetView tabSelected="1" topLeftCell="G118" workbookViewId="0">
+      <selection activeCell="AG146" sqref="AG146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2509,7 +2701,7 @@
         <v>33</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG66" si="1">AVERAGE(AA3,AC3,AE3)</f>
+        <f t="shared" ref="AG3:AG65" si="1">AVERAGE(AA3,AC3,AE3)</f>
         <v>2.9233045333333336E-6</v>
       </c>
       <c r="AH3" s="3">
@@ -9777,7 +9969,7 @@
         <v>7.6084450000000001E-3</v>
       </c>
       <c r="AG68">
-        <f t="shared" ref="AG67:AG130" si="2">AVERAGE(AA68,AC68,AE68)</f>
+        <f t="shared" ref="AG68:AG128" si="2">AVERAGE(AA68,AC68,AE68)</f>
         <v>9.3317554999999996E-2</v>
       </c>
       <c r="AH68" s="27">
@@ -16871,284 +17063,1625 @@
       </c>
     </row>
     <row r="132" spans="1:37">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="27">
+        <v>0.72626611900000004</v>
+      </c>
+      <c r="C132" s="29">
+        <v>0.69989333300000001</v>
+      </c>
+      <c r="D132" s="27">
+        <v>0.78869999999999996</v>
+      </c>
+      <c r="E132" s="27">
+        <v>0.665418073</v>
+      </c>
+      <c r="F132" s="29">
+        <v>0.61154333299999997</v>
+      </c>
+      <c r="G132" s="27">
+        <v>0.80335999999999996</v>
+      </c>
+      <c r="H132" s="27">
+        <v>3.2050656329999998</v>
+      </c>
+      <c r="I132" s="36">
+        <v>3.286413333</v>
+      </c>
+      <c r="J132" s="27">
+        <v>4.7468300000000001</v>
+      </c>
+      <c r="K132" s="27">
+        <v>4</v>
+      </c>
+      <c r="L132" s="27">
+        <v>1</v>
+      </c>
+      <c r="M132" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="N132" s="27">
+        <v>1</v>
+      </c>
+      <c r="O132" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="P132" s="28">
+        <v>1.4E-3</v>
+      </c>
+      <c r="Q132" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R132" s="27">
+        <v>0.112486302</v>
+      </c>
+      <c r="S132" s="27">
+        <v>0.118573425</v>
+      </c>
+      <c r="T132" s="27">
+        <v>0</v>
+      </c>
+      <c r="U132" s="27">
+        <v>0.246248889</v>
+      </c>
+      <c r="V132" s="27">
+        <v>0.28724095599999999</v>
+      </c>
+      <c r="W132" s="27">
+        <v>0</v>
+      </c>
+      <c r="X132" s="27">
+        <v>1.7320947310000001</v>
+      </c>
+      <c r="Y132" s="27">
+        <v>1.458075228</v>
+      </c>
+      <c r="Z132" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="36">
+        <v>0.368679443</v>
+      </c>
+      <c r="AB132" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC132" s="36">
+        <v>0.38812542999999999</v>
+      </c>
+      <c r="AD132" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE132" s="29">
+        <v>0.465955016</v>
+      </c>
+      <c r="AF132" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG132" s="72"/>
+      <c r="AH132" s="73"/>
+      <c r="AI132" s="73"/>
+      <c r="AJ132" s="73"/>
+      <c r="AK132" s="73"/>
+    </row>
+    <row r="133" spans="1:37">
+      <c r="A133" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" s="27">
+        <v>0.73189674400000004</v>
+      </c>
+      <c r="C133" s="27">
+        <v>0.79793199999999997</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" s="27">
+        <v>0.642705843</v>
+      </c>
+      <c r="F133" s="27">
+        <v>0.83290299999999995</v>
+      </c>
+      <c r="G133" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H133" s="27">
+        <v>3.2030907270000002</v>
+      </c>
+      <c r="I133" s="27">
+        <v>4.4197810000000004</v>
+      </c>
+      <c r="J133" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K133" s="27">
+        <v>10</v>
+      </c>
+      <c r="L133" s="27">
+        <v>0</v>
+      </c>
+      <c r="M133" s="28">
+        <v>0</v>
+      </c>
+      <c r="N133" s="27">
+        <v>7</v>
+      </c>
+      <c r="O133" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="P133" s="28">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="Q133" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R133" s="27">
+        <v>0.10511651299999999</v>
+      </c>
+      <c r="S133" s="27">
+        <v>9.1529544000000004E-2</v>
+      </c>
+      <c r="T133" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U133" s="27">
+        <v>0.26104797000000002</v>
+      </c>
+      <c r="V133" s="27">
+        <v>0.27839491599999999</v>
+      </c>
+      <c r="W133" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="X133" s="27">
+        <v>1.554072839</v>
+      </c>
+      <c r="Y133" s="27">
+        <v>1.47477244</v>
+      </c>
+      <c r="Z133" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA133" s="31">
+        <v>2.4801729000000002E-2</v>
+      </c>
+      <c r="AB133" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC133" s="31">
+        <v>2.9955017E-2</v>
+      </c>
+      <c r="AD133" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE133" s="31">
+        <v>1.4488338999999999E-2</v>
+      </c>
+      <c r="AF133" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG133" s="72"/>
+      <c r="AH133" s="73"/>
+      <c r="AI133" s="73"/>
+      <c r="AJ133" s="73"/>
+      <c r="AK133" s="73"/>
+    </row>
+    <row r="134" spans="1:37">
+      <c r="A134" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" s="27">
+        <v>0.72571502600000004</v>
+      </c>
+      <c r="C134" s="36">
+        <v>0.76885000000000003</v>
+      </c>
+      <c r="D134" s="27">
+        <v>0.77344999999999997</v>
+      </c>
+      <c r="E134" s="27">
+        <v>0.58834505299999995</v>
+      </c>
+      <c r="F134" s="27">
+        <v>0.60326000000000002</v>
+      </c>
+      <c r="G134" s="27">
+        <v>0.44046000000000002</v>
+      </c>
+      <c r="H134" s="27">
+        <v>2.8661265340000002</v>
+      </c>
+      <c r="I134" s="27">
+        <v>3.357272</v>
+      </c>
+      <c r="J134" s="27">
+        <v>2.0487899999999999</v>
+      </c>
+      <c r="K134" s="27">
+        <v>6</v>
+      </c>
+      <c r="L134" s="27">
+        <v>1</v>
+      </c>
+      <c r="M134" s="28">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="N134" s="27">
+        <v>1</v>
+      </c>
+      <c r="O134" s="28">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="P134" s="28">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="Q134" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R134" s="27">
+        <v>0.10064461700000001</v>
+      </c>
+      <c r="S134" s="27">
+        <v>5.0387545999999998E-2</v>
+      </c>
+      <c r="T134" s="27">
+        <v>0</v>
+      </c>
+      <c r="U134" s="27">
+        <v>0.203562565</v>
+      </c>
+      <c r="V134" s="27">
+        <v>0.13152716</v>
+      </c>
+      <c r="W134" s="27">
+        <v>0</v>
+      </c>
+      <c r="X134" s="27">
+        <v>1.5161377620000001</v>
+      </c>
+      <c r="Y134" s="27">
+        <v>1.831007077</v>
+      </c>
+      <c r="Z134" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="29">
+        <v>6.5916970000000005E-2</v>
+      </c>
+      <c r="AB134" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC134" s="29">
+        <v>0.40688074099999999</v>
+      </c>
+      <c r="AD134" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE134" s="29">
+        <v>0.290891599</v>
+      </c>
+      <c r="AF134" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG134" s="72"/>
+      <c r="AH134" s="73"/>
+      <c r="AI134" s="73"/>
+      <c r="AJ134" s="73"/>
+      <c r="AK134" s="73"/>
+    </row>
+    <row r="135" spans="1:37">
+      <c r="A135" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" s="27">
+        <v>0.64851349599999997</v>
+      </c>
+      <c r="C135" s="27">
+        <v>0.74857399999999996</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="27">
+        <v>0.40296756099999997</v>
+      </c>
+      <c r="F135" s="27">
+        <v>0.68442800000000004</v>
+      </c>
+      <c r="G135" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H135" s="27">
+        <v>1.203668293</v>
+      </c>
+      <c r="I135" s="27">
+        <v>3.6802139999999999</v>
+      </c>
+      <c r="J135" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K135" s="27">
+        <v>5</v>
+      </c>
+      <c r="L135" s="27">
+        <v>0</v>
+      </c>
+      <c r="M135" s="28">
+        <v>0</v>
+      </c>
+      <c r="N135" s="27">
+        <v>3</v>
+      </c>
+      <c r="O135" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="P135" s="28">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="Q135" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="R135" s="27">
+        <v>7.9070056E-2</v>
+      </c>
+      <c r="S135" s="27">
+        <v>8.5931357999999999E-2</v>
+      </c>
+      <c r="T135" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U135" s="27">
+        <v>0.18361965399999999</v>
+      </c>
+      <c r="V135" s="27">
+        <v>0.238047333</v>
+      </c>
+      <c r="W135" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="X135" s="27">
+        <v>1.6689872809999999</v>
+      </c>
+      <c r="Y135" s="27">
+        <v>1.2619925599999999</v>
+      </c>
+      <c r="Z135" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA135" s="31">
+        <v>3.0188415999999999E-2</v>
+      </c>
+      <c r="AB135" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC135" s="31">
+        <v>2.8865814E-2</v>
+      </c>
+      <c r="AD135" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE135" s="31">
+        <v>6.0442639999999997E-3</v>
+      </c>
+      <c r="AF135" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG135" s="72"/>
+      <c r="AH135" s="73"/>
+      <c r="AI135" s="73"/>
+      <c r="AJ135" s="73"/>
+      <c r="AK135" s="73"/>
+    </row>
+    <row r="136" spans="1:37">
+      <c r="A136" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" s="27">
+        <v>0.78560815299999998</v>
+      </c>
+      <c r="C136" s="27">
+        <v>0.85131000000000001</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" s="27">
+        <v>0.73232978900000001</v>
+      </c>
+      <c r="F136" s="27">
+        <v>0.94977999999999996</v>
+      </c>
+      <c r="G136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" s="27">
+        <v>3.7893785750000002</v>
+      </c>
+      <c r="I136" s="27">
+        <v>5.4068100000000001</v>
+      </c>
+      <c r="J136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K136" s="27">
+        <v>1</v>
+      </c>
+      <c r="L136" s="27">
+        <v>0</v>
+      </c>
+      <c r="M136" s="28">
+        <v>0</v>
+      </c>
+      <c r="N136" s="27">
+        <v>1</v>
+      </c>
+      <c r="O136" s="28">
+        <v>1</v>
+      </c>
+      <c r="P136" s="28">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="Q136" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R136" s="27">
+        <v>7.3000581999999994E-2</v>
+      </c>
+      <c r="S136" s="27">
+        <v>0</v>
+      </c>
+      <c r="T136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U136" s="27">
+        <v>0.25551343799999998</v>
+      </c>
+      <c r="V136" s="27">
+        <v>0</v>
+      </c>
+      <c r="W136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="X136" s="27">
+        <v>1.933964996</v>
+      </c>
+      <c r="Y136" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF136" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG136" s="72"/>
+      <c r="AH136" s="73"/>
+      <c r="AI136" s="73"/>
+      <c r="AJ136" s="73"/>
+      <c r="AK136" s="73"/>
+    </row>
+    <row r="137" spans="1:37">
+      <c r="A137" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" s="27">
+        <v>0.690646341</v>
+      </c>
+      <c r="C137" s="27">
+        <v>0.69647000000000003</v>
+      </c>
+      <c r="D137" s="27">
+        <v>0.62116000000000005</v>
+      </c>
+      <c r="E137" s="27">
+        <v>0.50228403499999996</v>
+      </c>
+      <c r="F137" s="27">
+        <v>0.51130333299999997</v>
+      </c>
+      <c r="G137" s="27">
+        <v>0.34387000000000001</v>
+      </c>
+      <c r="H137" s="27">
+        <v>1.535493835</v>
+      </c>
+      <c r="I137" s="29">
+        <v>1.0808866669999999</v>
+      </c>
+      <c r="J137" s="27">
+        <v>0.90385000000000004</v>
+      </c>
+      <c r="K137" s="27">
+        <v>4</v>
+      </c>
+      <c r="L137" s="27">
+        <v>1</v>
+      </c>
+      <c r="M137" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="N137" s="27">
+        <v>0</v>
+      </c>
+      <c r="O137" s="28">
+        <v>0</v>
+      </c>
+      <c r="P137" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="R137" s="27">
+        <v>8.2697382E-2</v>
+      </c>
+      <c r="S137" s="27">
+        <v>1.3493028000000001E-2</v>
+      </c>
+      <c r="T137" s="27">
+        <v>0</v>
+      </c>
+      <c r="U137" s="27">
+        <v>0.19537342699999999</v>
+      </c>
+      <c r="V137" s="27">
+        <v>0.122610836</v>
+      </c>
+      <c r="W137" s="27">
+        <v>0</v>
+      </c>
+      <c r="X137" s="27">
+        <v>2.1146824080000002</v>
+      </c>
+      <c r="Y137" s="27">
+        <v>1.980723891</v>
+      </c>
+      <c r="Z137" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="29">
+        <v>0.28851396600000001</v>
+      </c>
+      <c r="AB137" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC137" s="29">
+        <v>0.45555422699999998</v>
+      </c>
+      <c r="AD137" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE137" s="36">
+        <v>0.36522911000000002</v>
+      </c>
+      <c r="AF137" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG137" s="72"/>
+      <c r="AH137" s="73"/>
+      <c r="AI137" s="73"/>
+      <c r="AJ137" s="73"/>
+      <c r="AK137" s="73"/>
+    </row>
+    <row r="138" spans="1:37">
+      <c r="A138" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" s="39">
+        <v>0.69764294100000002</v>
+      </c>
+      <c r="C138" s="41">
+        <v>0.46253</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E138" s="39">
+        <v>0.54129764700000005</v>
+      </c>
+      <c r="F138" s="41">
+        <v>0.28656999999999999</v>
+      </c>
+      <c r="G138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" s="39">
+        <v>2.4332564310000002</v>
+      </c>
+      <c r="I138" s="39">
+        <v>2.5168300000000001</v>
+      </c>
+      <c r="J138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K138" s="39">
+        <v>1</v>
+      </c>
+      <c r="L138" s="39">
+        <v>0</v>
+      </c>
+      <c r="M138" s="40">
+        <v>0</v>
+      </c>
+      <c r="N138" s="39">
+        <v>0</v>
+      </c>
+      <c r="O138" s="40">
+        <v>0</v>
+      </c>
+      <c r="P138" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="R138" s="39">
+        <v>9.8110669999999997E-2</v>
+      </c>
+      <c r="S138" s="39">
+        <v>0</v>
+      </c>
+      <c r="T138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="U138" s="39">
+        <v>0.220871915</v>
+      </c>
+      <c r="V138" s="39">
+        <v>0</v>
+      </c>
+      <c r="W138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="X138" s="39">
+        <v>1.85526561</v>
+      </c>
+      <c r="Y138" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF138" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG138" s="74"/>
+      <c r="AH138" s="73"/>
+      <c r="AI138" s="73"/>
+      <c r="AJ138" s="73"/>
+      <c r="AK138" s="73"/>
+    </row>
+    <row r="139" spans="1:37">
+      <c r="A139" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" s="27">
+        <v>0.71094695799999996</v>
+      </c>
+      <c r="C139" s="36">
+        <v>0.72791464299999997</v>
+      </c>
+      <c r="D139" s="27">
+        <v>0.73643999999999998</v>
+      </c>
+      <c r="E139" s="27">
+        <v>0.56389587299999999</v>
+      </c>
+      <c r="F139" s="27">
+        <v>0.58836785700000005</v>
+      </c>
+      <c r="G139" s="27">
+        <v>0.46006000000000002</v>
+      </c>
+      <c r="H139" s="27">
+        <v>2.4158732230000002</v>
+      </c>
+      <c r="I139" s="27">
+        <v>2.8403575000000001</v>
+      </c>
+      <c r="J139" s="27">
+        <v>1.9782500000000001</v>
+      </c>
+      <c r="K139" s="27">
+        <v>57</v>
+      </c>
+      <c r="L139" s="27">
+        <v>1</v>
+      </c>
+      <c r="M139" s="28">
+        <f>L139/K139</f>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="N139" s="27">
+        <v>15</v>
+      </c>
+      <c r="O139" s="28">
+        <f>N139/K139</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="P139" s="28">
+        <v>8.43E-2</v>
+      </c>
+      <c r="Q139" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="R139" s="27">
+        <v>0.104845777</v>
+      </c>
+      <c r="S139" s="27">
+        <v>0.105318127</v>
+      </c>
+      <c r="T139" s="27">
+        <v>0</v>
+      </c>
+      <c r="U139" s="27">
+        <v>0.20766440999999999</v>
+      </c>
+      <c r="V139" s="27">
+        <v>0.175658798</v>
+      </c>
+      <c r="W139" s="27">
+        <v>0</v>
+      </c>
+      <c r="X139" s="27">
+        <v>1.4700698219999999</v>
+      </c>
+      <c r="Y139" s="27">
+        <v>1.0935225070000001</v>
+      </c>
+      <c r="Z139" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="29">
+        <v>0.12589409500000001</v>
+      </c>
+      <c r="AB139" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC139" s="29">
+        <v>0.16421408100000001</v>
+      </c>
+      <c r="AD139" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE139" s="31">
+        <v>4.5257250000000004E-3</v>
+      </c>
+      <c r="AF139" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG139" s="72"/>
+      <c r="AH139" s="73"/>
+      <c r="AI139" s="73"/>
+      <c r="AJ139" s="73"/>
+      <c r="AK139" s="73"/>
+    </row>
+    <row r="140" spans="1:37">
+      <c r="A140" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="B140" s="27">
+        <v>0.70279288399999995</v>
+      </c>
+      <c r="C140" s="27">
+        <v>0.72143000000000002</v>
+      </c>
+      <c r="D140" s="27">
+        <v>0.671072</v>
+      </c>
+      <c r="E140" s="27">
+        <v>0.47054919699999997</v>
+      </c>
+      <c r="F140" s="27">
+        <v>0.49304999999999999</v>
+      </c>
+      <c r="G140" s="27">
+        <v>0.381276</v>
+      </c>
+      <c r="H140" s="27">
+        <v>1.7732698920000001</v>
+      </c>
+      <c r="I140" s="29">
+        <v>1.06755</v>
+      </c>
+      <c r="J140" s="27">
+        <v>0.15391199999999999</v>
+      </c>
+      <c r="K140" s="27">
+        <v>6</v>
+      </c>
+      <c r="L140" s="27">
+        <v>5</v>
+      </c>
+      <c r="M140" s="28">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="N140" s="27">
+        <v>0</v>
+      </c>
+      <c r="O140" s="28">
+        <v>0</v>
+      </c>
+      <c r="P140" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="R140" s="27">
+        <v>7.2158782000000005E-2</v>
+      </c>
+      <c r="S140" s="27">
+        <v>0</v>
+      </c>
+      <c r="T140" s="27">
+        <v>1.8038063999999999E-2</v>
+      </c>
+      <c r="U140" s="27">
+        <v>0.20726910000000001</v>
+      </c>
+      <c r="V140" s="27">
+        <v>0</v>
+      </c>
+      <c r="W140" s="27">
+        <v>0.108947232</v>
+      </c>
+      <c r="X140" s="27">
+        <v>1.733775938</v>
+      </c>
+      <c r="Y140" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="27">
+        <v>1.415315935</v>
+      </c>
+      <c r="AA140" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB140" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC140" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD140" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE140" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF140" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG140" s="72"/>
+      <c r="AH140" s="73"/>
+      <c r="AI140" s="73"/>
+      <c r="AJ140" s="73"/>
+      <c r="AK140" s="73"/>
+    </row>
+    <row r="141" spans="1:37">
+      <c r="A141" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141" s="27">
+        <v>0.78493934799999998</v>
+      </c>
+      <c r="C141" s="27">
+        <v>0.81992571400000003</v>
+      </c>
+      <c r="D141" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="27">
+        <v>0.70997175000000001</v>
+      </c>
+      <c r="F141" s="27">
+        <v>0.820974286</v>
+      </c>
+      <c r="G141" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" s="27">
+        <v>0.78493934799999998</v>
+      </c>
+      <c r="I141" s="27">
+        <v>0.81992571400000003</v>
+      </c>
+      <c r="J141" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K141" s="27">
+        <v>14</v>
+      </c>
+      <c r="L141" s="27">
+        <v>0</v>
+      </c>
+      <c r="M141" s="28">
+        <v>0</v>
+      </c>
+      <c r="N141" s="27">
+        <v>12</v>
+      </c>
+      <c r="O141" s="28">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="P141" s="28">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Q141" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R141" s="27">
+        <v>6.6046658999999994E-2</v>
+      </c>
+      <c r="S141" s="27">
+        <v>4.0566029000000003E-2</v>
+      </c>
+      <c r="T141" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U141" s="27">
+        <v>0.25603424800000002</v>
+      </c>
+      <c r="V141" s="27">
+        <v>0.204070845</v>
+      </c>
+      <c r="W141" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="X141" s="27">
+        <v>6.6046658999999994E-2</v>
+      </c>
+      <c r="Y141" s="27">
+        <v>4.0566029000000003E-2</v>
+      </c>
+      <c r="Z141" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA141" s="31">
+        <v>3.4083590000000001E-3</v>
+      </c>
+      <c r="AB141" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC141" s="31">
+        <v>3.1704639E-2</v>
+      </c>
+      <c r="AD141" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE141" s="31">
+        <v>3.4083590000000001E-3</v>
+      </c>
+      <c r="AF141" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG141" s="72"/>
+      <c r="AH141" s="73"/>
+      <c r="AI141" s="73"/>
+      <c r="AJ141" s="73"/>
+      <c r="AK141" s="73"/>
+    </row>
+    <row r="142" spans="1:37">
+      <c r="A142" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="B142" s="27">
+        <v>0.78739871900000002</v>
+      </c>
+      <c r="C142" s="27">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="D142" s="27">
+        <v>0.81242000000000003</v>
+      </c>
+      <c r="E142" s="27">
+        <v>0.784461144</v>
+      </c>
+      <c r="F142" s="36">
+        <v>0.95118999999999998</v>
+      </c>
+      <c r="G142" s="27">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="H142" s="27">
+        <v>4.1699262399999997</v>
+      </c>
+      <c r="I142" s="27">
+        <v>5.3309100000000003</v>
+      </c>
+      <c r="J142" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="K142" s="27">
+        <v>2</v>
+      </c>
+      <c r="L142" s="27">
+        <v>1</v>
+      </c>
+      <c r="M142" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="N142" s="27">
+        <v>1</v>
+      </c>
+      <c r="O142" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="P142" s="28">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="Q142" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R142" s="27">
+        <v>9.7746701000000005E-2</v>
+      </c>
+      <c r="S142" s="27">
+        <v>0</v>
+      </c>
+      <c r="T142" s="27">
+        <v>0</v>
+      </c>
+      <c r="U142" s="27">
+        <v>0.28764371399999999</v>
+      </c>
+      <c r="V142" s="27">
+        <v>0</v>
+      </c>
+      <c r="W142" s="27">
+        <v>0</v>
+      </c>
+      <c r="X142" s="27">
+        <v>1.828029742</v>
+      </c>
+      <c r="Y142" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB142" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC142" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD142" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE142" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF142" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG142" s="72"/>
+      <c r="AH142" s="73"/>
+      <c r="AI142" s="73"/>
+      <c r="AJ142" s="73"/>
+      <c r="AK142" s="73"/>
+    </row>
+    <row r="143" spans="1:37">
+      <c r="A143" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="B143" s="27">
+        <v>0.68898657799999996</v>
+      </c>
+      <c r="C143" s="27">
+        <v>0.78777399999999997</v>
+      </c>
+      <c r="D143" s="27">
+        <v>0.69610000000000005</v>
+      </c>
+      <c r="E143" s="27">
+        <v>0.52620514299999999</v>
+      </c>
+      <c r="F143" s="27">
+        <v>0.75548800000000005</v>
+      </c>
+      <c r="G143" s="27">
+        <v>0.52274833300000001</v>
+      </c>
+      <c r="H143" s="27">
+        <v>2.2765291300000001</v>
+      </c>
+      <c r="I143" s="27">
+        <v>4.3944330000000003</v>
+      </c>
+      <c r="J143" s="27">
+        <v>2.3231850000000001</v>
+      </c>
+      <c r="K143" s="27">
+        <v>16</v>
+      </c>
+      <c r="L143" s="27">
+        <v>6</v>
+      </c>
+      <c r="M143" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="N143" s="27">
+        <v>6</v>
+      </c>
+      <c r="O143" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="P143" s="28">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="Q143" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R143" s="27">
+        <v>0.106964355</v>
+      </c>
+      <c r="S143" s="27">
+        <v>4.3778414000000002E-2</v>
+      </c>
+      <c r="T143" s="27">
+        <v>5.9043984000000001E-2</v>
+      </c>
+      <c r="U143" s="27">
+        <v>0.23387204</v>
+      </c>
+      <c r="V143" s="27">
+        <v>0.14526349999999999</v>
+      </c>
+      <c r="W143" s="27">
+        <v>0.13268808200000001</v>
+      </c>
+      <c r="X143" s="27">
+        <v>2.0023318259999998</v>
+      </c>
+      <c r="Y143" s="27">
+        <v>1.179108643</v>
+      </c>
+      <c r="Z143" s="27">
+        <v>1.205493082</v>
+      </c>
+      <c r="AA143" s="38">
+        <v>3.4022200000000001E-5</v>
+      </c>
+      <c r="AB143" s="31">
+        <v>1.0761997000000001E-2</v>
+      </c>
+      <c r="AC143" s="31">
+        <v>4.0748999999999999E-4</v>
+      </c>
+      <c r="AD143" s="31">
+        <v>1.1015107E-2</v>
+      </c>
+      <c r="AE143" s="31">
+        <v>1.6697899999999999E-4</v>
+      </c>
+      <c r="AF143" s="31">
+        <v>1.0113716E-2</v>
+      </c>
+      <c r="AG143" s="72"/>
+      <c r="AH143" s="73"/>
+      <c r="AI143" s="73"/>
+      <c r="AJ143" s="73"/>
+      <c r="AK143" s="73"/>
+    </row>
+    <row r="144" spans="1:37">
+      <c r="A144" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" s="27">
+        <v>0.68323228700000005</v>
+      </c>
+      <c r="C144" s="27">
+        <v>0.69768333299999996</v>
+      </c>
+      <c r="D144" s="27">
+        <v>0.61380999999999997</v>
+      </c>
+      <c r="E144" s="27">
+        <v>0.46978498299999999</v>
+      </c>
+      <c r="F144" s="27">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="G144" s="27">
+        <v>0.35124</v>
+      </c>
+      <c r="H144" s="27">
+        <v>1.883738259</v>
+      </c>
+      <c r="I144" s="29">
+        <v>0.86336666699999998</v>
+      </c>
+      <c r="J144" s="27">
+        <v>0.92598999999999998</v>
+      </c>
+      <c r="K144" s="27">
+        <v>4</v>
+      </c>
+      <c r="L144" s="27">
+        <v>1</v>
+      </c>
+      <c r="M144" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="N144" s="27">
+        <v>1</v>
+      </c>
+      <c r="O144" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="P144" s="28">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="Q144" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R144" s="27">
+        <v>8.4595136000000001E-2</v>
+      </c>
+      <c r="S144" s="27">
+        <v>6.8337942999999998E-2</v>
+      </c>
+      <c r="T144" s="27">
+        <v>0</v>
+      </c>
+      <c r="U144" s="27">
+        <v>0.21958671699999999</v>
+      </c>
+      <c r="V144" s="27">
+        <v>0.241167667</v>
+      </c>
+      <c r="W144" s="27">
+        <v>0</v>
+      </c>
+      <c r="X144" s="27">
+        <v>2.0865303239999999</v>
+      </c>
+      <c r="Y144" s="27">
+        <v>1.8808509410000001</v>
+      </c>
+      <c r="Z144" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="29">
+        <v>0.374947117</v>
+      </c>
+      <c r="AB144" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC144" s="29">
+        <v>0.44452309800000001</v>
+      </c>
+      <c r="AD144" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE144" s="36">
+        <v>0.22369719299999999</v>
+      </c>
+      <c r="AF144" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG144" s="72"/>
+      <c r="AH144" s="73"/>
+      <c r="AI144" s="73"/>
+      <c r="AJ144" s="73"/>
+      <c r="AK144" s="73"/>
+    </row>
+    <row r="145" spans="1:32">
+      <c r="A145" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B132" s="1">
-        <f>AVERAGE(B2:B131)</f>
-        <v>0.71114124153530234</v>
-      </c>
-      <c r="C132" s="1">
-        <f t="shared" ref="C132:AF132" si="4">AVERAGE(C2:C131)</f>
-        <v>0.74910127098068324</v>
-      </c>
-      <c r="D132" s="1">
+      <c r="B145" s="1">
+        <f>AVERAGE(B2:B144)</f>
+        <v>0.71199052844339494</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" ref="C145:AF145" si="4">AVERAGE(C2:C144)</f>
+        <v>0.74833488376452639</v>
+      </c>
+      <c r="D145" s="1">
         <f t="shared" si="4"/>
-        <v>0.65236670701101773</v>
-      </c>
-      <c r="E132" s="1">
+        <v>0.65768088275200554</v>
+      </c>
+      <c r="E145" s="1">
         <f t="shared" si="4"/>
-        <v>0.5739236453479668</v>
-      </c>
-      <c r="F132" s="1">
+        <v>0.57490398831611056</v>
+      </c>
+      <c r="F145" s="1">
         <f t="shared" si="4"/>
-        <v>0.67889740186094261</v>
-      </c>
-      <c r="G132" s="1">
+        <v>0.67705523332566242</v>
+      </c>
+      <c r="G145" s="1">
         <f t="shared" si="4"/>
-        <v>0.42656095103286656</v>
-      </c>
-      <c r="H132" s="1">
+        <v>0.43613618463218984</v>
+      </c>
+      <c r="H145" s="1">
         <f t="shared" si="4"/>
-        <v>2.554916510456688</v>
-      </c>
-      <c r="I132" s="1">
+        <v>2.5431308871050198</v>
+      </c>
+      <c r="I145" s="1">
         <f t="shared" si="4"/>
-        <v>3.4286562937363221</v>
-      </c>
-      <c r="J132" s="1">
+        <v>3.3872443994688619</v>
+      </c>
+      <c r="J145" s="1">
         <f t="shared" si="4"/>
-        <v>1.4125324503979457</v>
-      </c>
-      <c r="K132" s="1">
+        <v>1.4800652181056493</v>
+      </c>
+      <c r="K145" s="1">
         <f t="shared" si="4"/>
-        <v>12.108527131782946</v>
-      </c>
-      <c r="L132" s="1">
+        <v>11.915492957746478</v>
+      </c>
+      <c r="L145" s="1">
         <f t="shared" si="4"/>
-        <v>2.3410852713178296</v>
-      </c>
-      <c r="M132" s="1">
+        <v>2.2464788732394365</v>
+      </c>
+      <c r="M145" s="1">
         <f t="shared" si="4"/>
-        <v>0.21353817863823346</v>
-      </c>
-      <c r="N132" s="1">
+        <v>0.21221837674868013</v>
+      </c>
+      <c r="N145" s="1">
         <f t="shared" si="4"/>
-        <v>5.6111111111111107</v>
-      </c>
-      <c r="O132" s="1">
+        <v>5.4316546762589928</v>
+      </c>
+      <c r="O145" s="1">
         <f t="shared" si="4"/>
-        <v>0.37209166588538151</v>
-      </c>
-      <c r="P132" s="1">
+        <v>0.37262955249133034</v>
+      </c>
+      <c r="P145" s="1">
         <f t="shared" si="4"/>
-        <v>3.4012060891914372E-2</v>
-      </c>
-      <c r="Q132" s="1" t="e">
+        <v>3.2357695484756914E-2</v>
+      </c>
+      <c r="Q145" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R132" s="1">
+      <c r="R145" s="1">
         <f t="shared" si="4"/>
-        <v>9.2780022643792592E-2</v>
-      </c>
-      <c r="S132" s="1">
+        <v>9.262046797922005E-2</v>
+      </c>
+      <c r="S145" s="1">
         <f t="shared" si="4"/>
-        <v>5.4408296838096101E-2</v>
-      </c>
-      <c r="T132" s="1">
+        <v>5.3736173192267159E-2</v>
+      </c>
+      <c r="T145" s="1">
         <f t="shared" si="4"/>
-        <v>5.0577034778534674E-2</v>
-      </c>
-      <c r="U132" s="1">
+        <v>4.7055161335219857E-2</v>
+      </c>
+      <c r="U145" s="1">
         <f t="shared" si="4"/>
-        <v>0.21902884759413357</v>
-      </c>
-      <c r="V132" s="1">
+        <v>0.21995091145523404</v>
+      </c>
+      <c r="V145" s="1">
         <f t="shared" si="4"/>
-        <v>0.15292295642523213</v>
-      </c>
-      <c r="W132" s="1">
+        <v>0.15168975024081097</v>
+      </c>
+      <c r="W145" s="1">
         <f t="shared" si="4"/>
-        <v>0.1164723412387554</v>
-      </c>
-      <c r="X132" s="1">
+        <v>0.10905144429348611</v>
+      </c>
+      <c r="X145" s="1">
         <f t="shared" si="4"/>
-        <v>1.8027187377548772</v>
-      </c>
-      <c r="Y132" s="1">
+        <v>1.7895261063970362</v>
+      </c>
+      <c r="Y145" s="1">
         <f t="shared" si="4"/>
-        <v>1.3132783175251195</v>
-      </c>
-      <c r="Z132" s="1">
+        <v>1.2763692356173426</v>
+      </c>
+      <c r="Z145" s="1">
         <f t="shared" si="4"/>
-        <v>0.91450613607344433</v>
-      </c>
-      <c r="AA132" s="1">
+        <v>0.86401968369078241</v>
+      </c>
+      <c r="AA145" s="1">
         <f t="shared" si="4"/>
-        <v>0.11594995315147363</v>
-      </c>
-      <c r="AB132" s="1">
+        <v>0.1179739746670392</v>
+      </c>
+      <c r="AB145" s="1">
         <f t="shared" si="4"/>
-        <v>0.16450279123065414</v>
-      </c>
-      <c r="AC132" s="1">
+        <v>0.16170750406282405</v>
+      </c>
+      <c r="AC145" s="1">
         <f t="shared" si="4"/>
-        <v>0.12407446916269681</v>
-      </c>
-      <c r="AD132" s="1">
+        <v>0.13113853962486402</v>
+      </c>
+      <c r="AD145" s="1">
         <f t="shared" si="4"/>
-        <v>0.13769051464866897</v>
-      </c>
-      <c r="AE132" s="1">
+        <v>0.13538732541869319</v>
+      </c>
+      <c r="AE145" s="1">
         <f t="shared" si="4"/>
-        <v>0.1248506642345445</v>
-      </c>
-      <c r="AF132" s="1">
+        <v>0.12697566936919788</v>
+      </c>
+      <c r="AF145" s="1">
         <f t="shared" si="4"/>
-        <v>0.12504704126638</v>
+        <v>0.12295734444335492</v>
       </c>
     </row>
-    <row r="133" spans="1:37">
-      <c r="A133" s="1" t="s">
+    <row r="146" spans="1:32">
+      <c r="A146" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B133" s="1">
-        <f>STDEV(B2:B131)</f>
-        <v>5.7245678289866327E-2</v>
-      </c>
-      <c r="C133" s="1">
-        <f t="shared" ref="C133:AF133" si="5">STDEV(C2:C131)</f>
-        <v>8.3885508743371487E-2</v>
-      </c>
-      <c r="D133" s="1">
+      <c r="B146" s="1">
+        <f>STDEV(B2:B144)</f>
+        <v>5.6037517892706133E-2</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" ref="C146:AF146" si="5">STDEV(C2:C144)</f>
+        <v>8.5264883158607183E-2</v>
+      </c>
+      <c r="D146" s="1">
         <f t="shared" si="5"/>
-        <v>0.11402773320110693</v>
-      </c>
-      <c r="E133" s="1">
+        <v>0.11229934379134589</v>
+      </c>
+      <c r="E146" s="1">
         <f t="shared" si="5"/>
-        <v>0.11186211451619221</v>
-      </c>
-      <c r="F133" s="1">
+        <v>0.11179114771534435</v>
+      </c>
+      <c r="F146" s="1">
         <f t="shared" si="5"/>
-        <v>0.15397833742227016</v>
-      </c>
-      <c r="G133" s="1">
+        <v>0.15783300745795287</v>
+      </c>
+      <c r="G146" s="1">
         <f t="shared" si="5"/>
-        <v>0.18678734842226574</v>
-      </c>
-      <c r="H133" s="1">
+        <v>0.1927517278804903</v>
+      </c>
+      <c r="H146" s="1">
         <f t="shared" si="5"/>
-        <v>0.89535938592255848</v>
-      </c>
-      <c r="I133" s="1">
+        <v>0.90246574133062107</v>
+      </c>
+      <c r="I146" s="1">
         <f t="shared" si="5"/>
-        <v>1.2559884315684069</v>
-      </c>
-      <c r="J133" s="1">
+        <v>1.2988372313215191</v>
+      </c>
+      <c r="J146" s="1">
         <f t="shared" si="5"/>
-        <v>1.4905559699281381</v>
-      </c>
-      <c r="K133" s="1">
+        <v>1.5125820298945782</v>
+      </c>
+      <c r="K146" s="1">
         <f t="shared" si="5"/>
-        <v>14.111852459721979</v>
-      </c>
-      <c r="L133" s="1">
+        <v>14.140878300762344</v>
+      </c>
+      <c r="L146" s="1">
         <f t="shared" si="5"/>
-        <v>3.9794317355603042</v>
-      </c>
-      <c r="M133" s="1">
+        <v>3.8448392596017076</v>
+      </c>
+      <c r="M146" s="1">
         <f t="shared" si="5"/>
-        <v>0.25141860793720699</v>
-      </c>
-      <c r="N133" s="1">
+        <v>0.25057687080466018</v>
+      </c>
+      <c r="N146" s="1">
         <f t="shared" si="5"/>
-        <v>8.4729897648678634</v>
-      </c>
-      <c r="O133" s="1">
+        <v>8.2127952131549407</v>
+      </c>
+      <c r="O146" s="1">
         <f t="shared" si="5"/>
-        <v>0.29487103542785964</v>
-      </c>
-      <c r="P133" s="1">
+        <v>0.29718295264914157</v>
+      </c>
+      <c r="P146" s="1">
         <f t="shared" si="5"/>
-        <v>5.1792965742672954E-2</v>
-      </c>
-      <c r="Q133" s="1" t="e">
+        <v>5.0155932579908614E-2</v>
+      </c>
+      <c r="Q146" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R133" s="1">
+      <c r="R146" s="1">
         <f t="shared" si="5"/>
-        <v>3.0712122208433081E-2</v>
-      </c>
-      <c r="S133" s="1">
+        <v>2.9609800962308228E-2</v>
+      </c>
+      <c r="S146" s="1">
         <f t="shared" si="5"/>
-        <v>3.669176472197281E-2</v>
-      </c>
-      <c r="T133" s="1">
+        <v>3.7260191085193933E-2</v>
+      </c>
+      <c r="T146" s="1">
         <f t="shared" si="5"/>
-        <v>5.4783027792466812E-2</v>
-      </c>
-      <c r="U133" s="1">
+        <v>5.3914615434804032E-2</v>
+      </c>
+      <c r="U146" s="1">
         <f t="shared" si="5"/>
-        <v>3.6346988832474204E-2</v>
-      </c>
-      <c r="V133" s="1">
+        <v>3.5872079699091397E-2</v>
+      </c>
+      <c r="V146" s="1">
         <f t="shared" si="5"/>
-        <v>8.1281241237794191E-2</v>
-      </c>
-      <c r="W133" s="1">
+        <v>8.4068684064441984E-2</v>
+      </c>
+      <c r="W146" s="1">
         <f t="shared" si="5"/>
-        <v>0.11316202924556737</v>
-      </c>
-      <c r="X133" s="1">
+        <v>0.11191354876218651</v>
+      </c>
+      <c r="X146" s="1">
         <f t="shared" si="5"/>
-        <v>0.24030880315062214</v>
-      </c>
-      <c r="Y133" s="1">
+        <v>0.27808460053734108</v>
+      </c>
+      <c r="Y146" s="1">
         <f t="shared" si="5"/>
-        <v>0.71225615993562108</v>
-      </c>
-      <c r="Z133" s="1">
+        <v>0.7276064194926477</v>
+      </c>
+      <c r="Z146" s="1">
         <f t="shared" si="5"/>
-        <v>0.82519830483503953</v>
-      </c>
-      <c r="AA133" s="1">
+        <v>0.8230137818726746</v>
+      </c>
+      <c r="AA146" s="1">
         <f t="shared" si="5"/>
-        <v>0.13815528450612202</v>
-      </c>
-      <c r="AB133" s="1">
+        <v>0.13916716019692876</v>
+      </c>
+      <c r="AB146" s="1">
         <f t="shared" si="5"/>
-        <v>0.13036996193202705</v>
-      </c>
-      <c r="AC133" s="1">
+        <v>0.13081028188802818</v>
+      </c>
+      <c r="AC146" s="1">
         <f t="shared" si="5"/>
-        <v>0.14199005547911267</v>
-      </c>
-      <c r="AD133" s="1">
+        <v>0.14841461816118801</v>
+      </c>
+      <c r="AD146" s="1">
         <f t="shared" si="5"/>
-        <v>0.12296703134322612</v>
-      </c>
-      <c r="AE133" s="1">
+        <v>0.12301476226745164</v>
+      </c>
+      <c r="AE146" s="1">
         <f t="shared" si="5"/>
-        <v>0.13966078763946979</v>
-      </c>
-      <c r="AF133" s="1">
+        <v>0.14288131326497858</v>
+      </c>
+      <c r="AF146" s="1">
         <f t="shared" si="5"/>
-        <v>9.9476176175361752E-2</v>
+        <v>9.9761892789143061E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:37">
-      <c r="Z134" s="1" t="s">
+    <row r="147" spans="1:32">
+      <c r="Z147" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AA134" s="69">
-        <v>3.1909309999999997E-5</v>
-      </c>
-      <c r="AB134" s="70">
-        <v>2.7527450000000001E-10</v>
-      </c>
-      <c r="AC134" s="70">
-        <v>6.0635810000000002E-9</v>
-      </c>
-      <c r="AD134" s="70">
-        <v>4.510934E-18</v>
-      </c>
-      <c r="AE134" s="70">
-        <v>2.7673040000000002E-9</v>
-      </c>
-      <c r="AF134" s="70">
-        <v>6.3215010000000001E-18</v>
+      <c r="AA147" s="69">
+        <v>2.937831E-5</v>
+      </c>
+      <c r="AB147" s="70">
+        <v>3.4210120000000001E-10</v>
+      </c>
+      <c r="AC147" s="70">
+        <v>4.0273170000000004E-9</v>
+      </c>
+      <c r="AD147" s="70">
+        <v>9.2189080000000002E-18</v>
+      </c>
+      <c r="AE147" s="70">
+        <v>2.954396E-9</v>
+      </c>
+      <c r="AF147" s="70">
+        <v>1.4003720000000001E-17</v>
       </c>
     </row>
   </sheetData>
